--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1279395.488405871</v>
+        <v>1365628.719317028</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584563</v>
+        <v>6486630.972584565</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>271.1794273122404</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4236641954268</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>101.2653985128657</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.50388216741892</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.36089502260416</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>220.6512727398134</v>
       </c>
       <c r="I14" t="n">
         <v>67.96895394968166</v>
@@ -1661,7 +1663,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.50388216741892</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1743,7 +1745,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>161.3574866739762</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.53003894133915</v>
+        <v>118.2694521832852</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>263.9104464652447</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>163.3766551585338</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1971,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>154.3681652355332</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2005,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>99.06162346260722</v>
       </c>
       <c r="E19" t="n">
-        <v>128.1567544761091</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2053,13 +2055,13 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>142.4612954384446</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>362.57740126912</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874107</v>
+        <v>21.69126064627583</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>101.6144299519823</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>145.5666756780463</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>53.34819097927057</v>
       </c>
       <c r="U23" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>77.43563488865085</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>38.99416705978253</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>30.58498581033632</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>96.06949083745289</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>94.11597058296549</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.2281018476007</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>118.2694521832854</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>217.8408681516314</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>82.22064858124685</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.4596162358518</v>
+        <v>50.33110719878907</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>195.3237932237977</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>210.371852281584</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>105.5870378728063</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>143.3558364049719</v>
       </c>
       <c r="X34" t="n">
-        <v>18.15021912779098</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>125.4955624146437</v>
+        <v>34.86499201517804</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
         <v>67.96895394968166</v>
@@ -3320,16 +3322,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>180.2518826854719</v>
+        <v>180.2518826854705</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.76397372915767</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>223.8564900560921</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>304.9043287339382</v>
+        <v>155.5790826212577</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>116.3924823968825</v>
       </c>
       <c r="C39" t="n">
-        <v>101.2653985128657</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3600,7 +3602,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.59885160580653</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>24.20899402709975</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
@@ -3715,13 +3717,13 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>149.5439997045609</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>123.8806927483487</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3657483393379</v>
+        <v>85.22504708635316</v>
       </c>
       <c r="H42" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U42" t="n">
-        <v>154.3681652355332</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>111.2563586890683</v>
+        <v>129.383098177607</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>61.39583371543893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>110.0562942041576</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U45" t="n">
-        <v>154.3681652355332</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>155.5419945243187</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>67.34079955477631</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>77.72378930909441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1588.104311797488</v>
+        <v>1416.470249991908</v>
       </c>
       <c r="C11" t="n">
-        <v>1219.141794857076</v>
+        <v>1047.507733051496</v>
       </c>
       <c r="D11" t="n">
-        <v>945.2231814103684</v>
+        <v>689.242034444746</v>
       </c>
       <c r="E11" t="n">
-        <v>945.2231814103684</v>
+        <v>689.242034444746</v>
       </c>
       <c r="F11" t="n">
-        <v>534.2372766207609</v>
+        <v>689.242034444746</v>
       </c>
       <c r="G11" t="n">
-        <v>118.4733379687844</v>
+        <v>273.4780957927695</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I11" t="n">
         <v>49.81782892870196</v>
@@ -5069,22 +5071,22 @@
         <v>2364.843483837421</v>
       </c>
       <c r="T11" t="n">
-        <v>2364.843483837421</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="U11" t="n">
-        <v>2364.843483837421</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="V11" t="n">
-        <v>2364.843483837421</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="W11" t="n">
-        <v>2364.843483837421</v>
+        <v>1803.07009005603</v>
       </c>
       <c r="X11" t="n">
-        <v>2364.843483837421</v>
+        <v>1803.07009005603</v>
       </c>
       <c r="Y11" t="n">
-        <v>1974.704151861609</v>
+        <v>1803.07009005603</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416488</v>
       </c>
       <c r="C12" t="n">
         <v>756.8500179155219</v>
@@ -5118,25 +5120,25 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K12" t="n">
-        <v>413.775532849196</v>
+        <v>550.7659925046441</v>
       </c>
       <c r="L12" t="n">
-        <v>701.7398160318585</v>
+        <v>838.7302756873066</v>
       </c>
       <c r="M12" t="n">
-        <v>1057.13742028053</v>
+        <v>1194.127879935978</v>
       </c>
       <c r="N12" t="n">
-        <v>1436.349986510835</v>
+        <v>1573.340446166283</v>
       </c>
       <c r="O12" t="n">
-        <v>1761.035604224592</v>
+        <v>1898.02606388004</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787595</v>
+        <v>2357.126603646086</v>
       </c>
       <c r="Q12" t="n">
         <v>2468.480498228519</v>
@@ -5145,25 +5147,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261717</v>
       </c>
     </row>
     <row r="13">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>423.1386449296419</v>
+        <v>1085.407362648338</v>
       </c>
       <c r="C14" t="n">
-        <v>423.1386449296419</v>
+        <v>1085.407362648338</v>
       </c>
       <c r="D14" t="n">
-        <v>423.1386449296419</v>
+        <v>727.1416640415878</v>
       </c>
       <c r="E14" t="n">
-        <v>423.1386449296419</v>
+        <v>341.3534114433435</v>
       </c>
       <c r="F14" t="n">
-        <v>423.1386449296419</v>
+        <v>341.3534114433435</v>
       </c>
       <c r="G14" t="n">
-        <v>423.1386449296419</v>
+        <v>341.3534114433435</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
         <v>2002.031077317523</v>
@@ -5297,31 +5299,31 @@
         <v>2299.347327962848</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837421</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326144</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520223</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V14" t="n">
-        <v>1571.190062176652</v>
+        <v>1824.775857982574</v>
       </c>
       <c r="W14" t="n">
-        <v>1218.421406906538</v>
+        <v>1472.00720271246</v>
       </c>
       <c r="X14" t="n">
-        <v>844.9556486454578</v>
+        <v>1472.00720271246</v>
       </c>
       <c r="Y14" t="n">
-        <v>454.8163166696461</v>
+        <v>1472.00720271246</v>
       </c>
     </row>
     <row r="15">
@@ -5340,55 +5342,55 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088818</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J15" t="n">
         <v>109.2358024440159</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621913</v>
+        <v>550.765992504644</v>
       </c>
       <c r="L15" t="n">
-        <v>905.4410408548781</v>
+        <v>838.7302756873065</v>
       </c>
       <c r="M15" t="n">
-        <v>1260.83864510355</v>
+        <v>1194.127879935978</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.051211333854</v>
+        <v>1573.340446166283</v>
       </c>
       <c r="O15" t="n">
-        <v>1964.736829047611</v>
+        <v>1898.02606388004</v>
       </c>
       <c r="P15" t="n">
-        <v>2205.99259580932</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
         <v>1769.367539915405</v>
@@ -5431,10 +5433,10 @@
         <v>156.4714025375973</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477627</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490677</v>
@@ -5458,22 +5460,22 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S16" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T16" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U16" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="X16" t="n">
         <v>1489.756275090497</v>
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1635.67674096947</v>
+        <v>1582.956534786613</v>
       </c>
       <c r="C17" t="n">
-        <v>1635.67674096947</v>
+        <v>1582.956534786613</v>
       </c>
       <c r="D17" t="n">
-        <v>1635.67674096947</v>
+        <v>1224.690836179863</v>
       </c>
       <c r="E17" t="n">
-        <v>1249.888488371226</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="F17" t="n">
-        <v>838.9025835816184</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="G17" t="n">
         <v>423.1386449296419</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799485</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549141</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240658</v>
@@ -5528,37 +5530,37 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326144</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U17" t="n">
-        <v>1902.252949520223</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V17" t="n">
-        <v>1635.67674096947</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="W17" t="n">
-        <v>1635.67674096947</v>
+        <v>2138.122791164984</v>
       </c>
       <c r="X17" t="n">
-        <v>1635.67674096947</v>
+        <v>1973.095866762425</v>
       </c>
       <c r="Y17" t="n">
-        <v>1635.67674096947</v>
+        <v>1582.956534786613</v>
       </c>
     </row>
     <row r="18">
@@ -5580,49 +5582,49 @@
         <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440159</v>
+        <v>119.1040605898634</v>
       </c>
       <c r="K18" t="n">
-        <v>550.7659925046441</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L18" t="n">
-        <v>838.7302756873066</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.127879935978</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.208704312129</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O18" t="n">
-        <v>1907.894322025886</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787595</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957452</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
         <v>2004.519648147148</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>899.9172217540118</v>
+        <v>1749.995732928482</v>
       </c>
       <c r="C19" t="n">
-        <v>899.9172217540118</v>
+        <v>1749.995732928482</v>
       </c>
       <c r="D19" t="n">
-        <v>749.8005823416761</v>
+        <v>1649.933487006657</v>
       </c>
       <c r="E19" t="n">
-        <v>620.3493151940911</v>
+        <v>1502.020393424264</v>
       </c>
       <c r="F19" t="n">
-        <v>473.4593676961807</v>
+        <v>1355.130445926353</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>1187.117431366672</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>1038.14248076777</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870196</v>
+        <v>931.4889071588746</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477627</v>
+        <v>955.1183582849488</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490677</v>
+        <v>1123.78564187924</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394354</v>
+        <v>1395.148129369608</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642498</v>
+        <v>1691.650947694422</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907538</v>
+        <v>1986.538208137711</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298602</v>
+        <v>2242.898026528775</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.06637823043</v>
+        <v>2438.737456460603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204926</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204926</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>2293.800006805147</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.03700742479</v>
+        <v>2293.800006805147</v>
       </c>
       <c r="U19" t="n">
-        <v>899.9172217540118</v>
+        <v>2004.680221134369</v>
       </c>
       <c r="V19" t="n">
-        <v>899.9172217540118</v>
+        <v>1749.995732928482</v>
       </c>
       <c r="W19" t="n">
-        <v>899.9172217540118</v>
+        <v>1749.995732928482</v>
       </c>
       <c r="X19" t="n">
-        <v>899.9172217540118</v>
+        <v>1749.995732928482</v>
       </c>
       <c r="Y19" t="n">
-        <v>899.9172217540118</v>
+        <v>1749.995732928482</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>777.0460444758642</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="C20" t="n">
-        <v>408.0835275354525</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="D20" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="E20" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="F20" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T20" t="n">
-        <v>2220.943185414751</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="U20" t="n">
-        <v>2220.943185414751</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V20" t="n">
-        <v>1889.88029807118</v>
+        <v>1571.190062176652</v>
       </c>
       <c r="W20" t="n">
-        <v>1537.111642801066</v>
+        <v>1218.421406906538</v>
       </c>
       <c r="X20" t="n">
-        <v>1163.645884539986</v>
+        <v>1218.421406906538</v>
       </c>
       <c r="Y20" t="n">
-        <v>1163.645884539986</v>
+        <v>852.1816076448002</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416488</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992715</v>
+        <v>535.7508602992706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.513405293816</v>
+        <v>376.5134052938151</v>
       </c>
       <c r="F21" t="n">
-        <v>229.978847320701</v>
+        <v>229.9788473207001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005659</v>
+        <v>93.24576819005568</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088818</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>553.7386469531793</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L21" t="n">
-        <v>841.7029301358418</v>
+        <v>701.7398160318585</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.100534384513</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N21" t="n">
-        <v>1813.5961673772</v>
+        <v>1673.633053273217</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.281785090957</v>
+        <v>1998.318670986974</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852666</v>
+        <v>2239.574437748683</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T21" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261717</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.3365799205313</v>
+        <v>918.37904818882</v>
       </c>
       <c r="C22" t="n">
-        <v>616.3365799205313</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D22" t="n">
-        <v>616.3365799205313</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E22" t="n">
-        <v>513.6957415851957</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F22" t="n">
-        <v>366.8057940872854</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G22" t="n">
-        <v>198.792779527604</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J22" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477627</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M22" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5926,7 +5928,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q22" t="n">
         <v>1609.220368204926</v>
@@ -5938,22 +5940,22 @@
         <v>1609.220368204926</v>
       </c>
       <c r="T22" t="n">
-        <v>1609.220368204926</v>
+        <v>1462.183322065485</v>
       </c>
       <c r="U22" t="n">
-        <v>1609.220368204926</v>
+        <v>1173.063536394707</v>
       </c>
       <c r="V22" t="n">
-        <v>1354.535879999039</v>
+        <v>918.37904818882</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.118709962079</v>
+        <v>918.37904818882</v>
       </c>
       <c r="X22" t="n">
-        <v>837.1291590640615</v>
+        <v>918.37904818882</v>
       </c>
       <c r="Y22" t="n">
-        <v>616.3365799205313</v>
+        <v>918.37904818882</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>840.3753335398837</v>
+        <v>1140.682341440213</v>
       </c>
       <c r="C23" t="n">
-        <v>840.3753335398837</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="D23" t="n">
-        <v>840.3753335398837</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="E23" t="n">
-        <v>840.3753335398837</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="F23" t="n">
-        <v>840.3753335398837</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G23" t="n">
-        <v>424.6113948879072</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
@@ -6014,25 +6016,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2229.476243239409</v>
+        <v>2510.64188275314</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.890447433488</v>
+        <v>2257.056086947219</v>
       </c>
       <c r="V23" t="n">
-        <v>1644.827560089917</v>
+        <v>2257.056086947219</v>
       </c>
       <c r="W23" t="n">
-        <v>1292.058904819803</v>
+        <v>1904.287431677104</v>
       </c>
       <c r="X23" t="n">
-        <v>918.593146558723</v>
+        <v>1530.821673416025</v>
       </c>
       <c r="Y23" t="n">
-        <v>840.3753335398837</v>
+        <v>1140.682341440213</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
@@ -6075,19 +6077,19 @@
         <v>578.3824410031191</v>
       </c>
       <c r="M24" t="n">
-        <v>1213.103354729339</v>
+        <v>933.7800452517906</v>
       </c>
       <c r="N24" t="n">
-        <v>1847.824268455559</v>
+        <v>1568.50095897801</v>
       </c>
       <c r="O24" t="n">
-        <v>2172.509886169316</v>
+        <v>1893.186576691767</v>
       </c>
       <c r="P24" t="n">
-        <v>2413.765652931025</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1618.982268492685</v>
+        <v>2042.623807260163</v>
       </c>
       <c r="C25" t="n">
-        <v>1450.046085564778</v>
+        <v>1873.687624332256</v>
       </c>
       <c r="D25" t="n">
-        <v>1299.929446152442</v>
+        <v>1723.570984919921</v>
       </c>
       <c r="E25" t="n">
-        <v>1152.016352570049</v>
+        <v>1575.657891337528</v>
       </c>
       <c r="F25" t="n">
-        <v>1005.126405072139</v>
+        <v>1428.767943839617</v>
       </c>
       <c r="G25" t="n">
-        <v>1005.126405072139</v>
+        <v>1260.754929279936</v>
       </c>
       <c r="H25" t="n">
-        <v>1005.126405072139</v>
+        <v>1111.779978681034</v>
       </c>
       <c r="I25" t="n">
         <v>1005.126405072139</v>
@@ -6169,28 +6171,28 @@
         <v>2564.528944348363</v>
       </c>
       <c r="R25" t="n">
-        <v>2564.528944348363</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="S25" t="n">
-        <v>2564.528944348363</v>
+        <v>2263.660319625537</v>
       </c>
       <c r="T25" t="n">
-        <v>2341.437023198178</v>
+        <v>2224.272272090403</v>
       </c>
       <c r="U25" t="n">
-        <v>2052.3172375274</v>
+        <v>2224.272272090403</v>
       </c>
       <c r="V25" t="n">
-        <v>2052.3172375274</v>
+        <v>2224.272272090403</v>
       </c>
       <c r="W25" t="n">
-        <v>2052.3172375274</v>
+        <v>2224.272272090403</v>
       </c>
       <c r="X25" t="n">
-        <v>2021.423312466454</v>
+        <v>2224.272272090403</v>
       </c>
       <c r="Y25" t="n">
-        <v>1800.630733322924</v>
+        <v>2224.272272090403</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1690.749882573629</v>
+        <v>420.253095827379</v>
       </c>
       <c r="C26" t="n">
-        <v>1690.749882573629</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D26" t="n">
-        <v>1332.484183966878</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E26" t="n">
-        <v>946.6959313686339</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F26" t="n">
-        <v>535.7100265790262</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G26" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H26" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
         <v>51.29057888696726</v>
@@ -6227,49 +6229,49 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>437.3637422189603</v>
+        <v>502.422997893213</v>
       </c>
       <c r="L26" t="n">
-        <v>781.4474136939266</v>
+        <v>846.5066693681792</v>
       </c>
       <c r="M26" t="n">
-        <v>1195.97623347967</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N26" t="n">
-        <v>1621.826371324918</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U26" t="n">
-        <v>2467.489054613562</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V26" t="n">
-        <v>2467.489054613562</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W26" t="n">
-        <v>2467.489054613562</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="X26" t="n">
-        <v>2467.489054613562</v>
+        <v>1196.992267867312</v>
       </c>
       <c r="Y26" t="n">
-        <v>2077.34972263775</v>
+        <v>806.8529358915007</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C27" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G27" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
@@ -6306,22 +6308,22 @@
         <v>110.7085524022812</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204566</v>
+        <v>552.2387424629094</v>
       </c>
       <c r="L27" t="n">
-        <v>578.3824410031191</v>
+        <v>840.2030256455719</v>
       </c>
       <c r="M27" t="n">
-        <v>933.7800452517906</v>
+        <v>1195.600629894243</v>
       </c>
       <c r="N27" t="n">
-        <v>1568.50095897801</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O27" t="n">
-        <v>2189.508334797642</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P27" t="n">
-        <v>2430.764101559351</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.117996141784</v>
@@ -6339,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6348,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1005.126405072139</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="C28" t="n">
-        <v>1005.126405072139</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="D28" t="n">
-        <v>1005.126405072139</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E28" t="n">
-        <v>1005.126405072139</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F28" t="n">
-        <v>1005.126405072139</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G28" t="n">
-        <v>1005.126405072139</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K28" t="n">
-        <v>1197.423139792505</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M28" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N28" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O28" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P28" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R28" t="n">
-        <v>2486.520760663918</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S28" t="n">
-        <v>2289.429321033967</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T28" t="n">
-        <v>2066.337399883782</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="U28" t="n">
-        <v>1777.217614213004</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="V28" t="n">
-        <v>1522.533126007117</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="W28" t="n">
-        <v>1233.115955970156</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="X28" t="n">
-        <v>1005.126405072139</v>
+        <v>1491.229025048762</v>
       </c>
       <c r="Y28" t="n">
-        <v>1005.126405072139</v>
+        <v>1270.436445905232</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1414.32401404735</v>
+        <v>724.9184027882363</v>
       </c>
       <c r="C29" t="n">
-        <v>1045.361497106938</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="D29" t="n">
-        <v>687.0957985001876</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="E29" t="n">
-        <v>687.0957985001876</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="F29" t="n">
-        <v>687.0957985001876</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="G29" t="n">
-        <v>271.3318598482111</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H29" t="n">
         <v>51.29057888696726</v>
@@ -6464,7 +6466,7 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382138</v>
+        <v>502.422997893213</v>
       </c>
       <c r="L29" t="n">
         <v>846.5066693681792</v>
@@ -6491,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2481.477784165285</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2227.891988359364</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>2227.891988359364</v>
       </c>
       <c r="W29" t="n">
-        <v>2564.528944348363</v>
+        <v>1875.12333308925</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.063186087283</v>
+        <v>1501.65757482817</v>
       </c>
       <c r="Y29" t="n">
-        <v>1800.923854111471</v>
+        <v>1111.518242852358</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915338</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>290.4181578204566</v>
+        <v>609.1508641329108</v>
       </c>
       <c r="L30" t="n">
-        <v>578.3824410031191</v>
+        <v>897.1151473155733</v>
       </c>
       <c r="M30" t="n">
-        <v>1175.574854841118</v>
+        <v>1252.512751564245</v>
       </c>
       <c r="N30" t="n">
-        <v>1554.787421071423</v>
+        <v>1887.233665290465</v>
       </c>
       <c r="O30" t="n">
-        <v>2189.508334797642</v>
+        <v>2211.919283004222</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.764101559351</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>982.1344074660968</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="C31" t="n">
-        <v>813.1982245381899</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="D31" t="n">
-        <v>663.0815851258542</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E31" t="n">
-        <v>515.1684915434611</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F31" t="n">
-        <v>368.2785440455507</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G31" t="n">
-        <v>200.2655294858693</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
@@ -6646,25 +6648,25 @@
         <v>1610.693118163191</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.60167853324</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T31" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="U31" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.509757383056</v>
+        <v>1321.275948126231</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.509757383056</v>
+        <v>1321.275948126231</v>
       </c>
       <c r="Y31" t="n">
-        <v>1163.782872296337</v>
+        <v>1270.436445905232</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575.292951821981</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.33043488157</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D32" t="n">
-        <v>848.0647362748191</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2764836765748</v>
+        <v>659.5732445086937</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29057888696726</v>
+        <v>248.5873397190862</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6740,10 +6742,10 @@
         <v>2564.528944348363</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.032123861914</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y32" t="n">
-        <v>1961.892791886103</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6779,13 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>235.538677389286</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K33" t="n">
-        <v>609.1508641329109</v>
+        <v>329.8275546553625</v>
       </c>
       <c r="L33" t="n">
-        <v>897.1151473155734</v>
+        <v>617.791837838025</v>
       </c>
       <c r="M33" t="n">
         <v>1252.512751564245</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.7351587347495</v>
+        <v>476.9969748361052</v>
       </c>
       <c r="C34" t="n">
-        <v>769.7351587347495</v>
+        <v>308.0607919081983</v>
       </c>
       <c r="D34" t="n">
-        <v>769.7351587347495</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="E34" t="n">
-        <v>621.8220651523563</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="F34" t="n">
-        <v>474.932117654446</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="G34" t="n">
-        <v>306.9191030947646</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H34" t="n">
         <v>157.9441524958626</v>
@@ -6856,10 +6858,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304157</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K34" t="n">
-        <v>243.587313607333</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
         <v>514.9498010977007</v>
@@ -6880,28 +6882,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.693118163191</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.60167853324</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T34" t="n">
-        <v>1190.509757383056</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="U34" t="n">
-        <v>1190.509757383056</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.509757383056</v>
+        <v>1252.23144486443</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.509757383056</v>
+        <v>1107.427569707892</v>
       </c>
       <c r="X34" t="n">
-        <v>1172.176202708519</v>
+        <v>879.4380188098751</v>
       </c>
       <c r="Y34" t="n">
-        <v>951.3836235649892</v>
+        <v>658.6454396663449</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1769.238905262024</v>
+        <v>458.3558085813369</v>
       </c>
       <c r="C35" t="n">
-        <v>1400.276388321613</v>
+        <v>458.3558085813369</v>
       </c>
       <c r="D35" t="n">
-        <v>1042.010689714862</v>
+        <v>458.3558085813369</v>
       </c>
       <c r="E35" t="n">
-        <v>656.222437116618</v>
+        <v>458.3558085813369</v>
       </c>
       <c r="F35" t="n">
-        <v>245.2365323270105</v>
+        <v>458.3558085813369</v>
       </c>
       <c r="G35" t="n">
-        <v>118.4733379687845</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H35" t="n">
         <v>118.4733379687845</v>
       </c>
       <c r="I35" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
         <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799501</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549163</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T35" t="n">
-        <v>2155.838745326146</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U35" t="n">
-        <v>2155.838745326146</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V35" t="n">
-        <v>2155.838745326146</v>
+        <v>1571.190062176653</v>
       </c>
       <c r="W35" t="n">
-        <v>2155.838745326146</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X35" t="n">
-        <v>2155.838745326146</v>
+        <v>844.9556486454587</v>
       </c>
       <c r="Y35" t="n">
-        <v>2155.838745326146</v>
+        <v>844.9556486454587</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F36" t="n">
         <v>302.1435952757001</v>
@@ -7008,49 +7010,49 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.33540390088824</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I36" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J36" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621912</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L36" t="n">
-        <v>763.7078559446878</v>
+        <v>701.7398160318586</v>
       </c>
       <c r="M36" t="n">
-        <v>1119.105460193359</v>
+        <v>1197.100534384513</v>
       </c>
       <c r="N36" t="n">
-        <v>1498.318026423664</v>
+        <v>1813.5961673772</v>
       </c>
       <c r="O36" t="n">
-        <v>1823.003644137421</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852668</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W36" t="n">
         <v>1515.130183187204</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4889071588759</v>
+        <v>980.6616575078315</v>
       </c>
       <c r="C37" t="n">
-        <v>931.4889071588759</v>
+        <v>811.7254745799246</v>
       </c>
       <c r="D37" t="n">
-        <v>931.4889071588759</v>
+        <v>661.6088351675888</v>
       </c>
       <c r="E37" t="n">
-        <v>931.4889071588759</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F37" t="n">
-        <v>931.4889071588759</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G37" t="n">
-        <v>931.4889071588759</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H37" t="n">
-        <v>931.4889071588759</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I37" t="n">
-        <v>931.4889071588759</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J37" t="n">
-        <v>955.1183582849502</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K37" t="n">
-        <v>1123.785641879242</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M37" t="n">
-        <v>1691.650947694424</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N37" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S37" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T37" t="n">
-        <v>2267.799525284915</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.679739614137</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.99525140825</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.57808137129</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.588530473272</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.7959513297423</v>
+        <v>1162.310122338071</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1511.071237097982</v>
+        <v>2104.291606370977</v>
       </c>
       <c r="C38" t="n">
-        <v>1142.108720157571</v>
+        <v>1735.329089430565</v>
       </c>
       <c r="D38" t="n">
-        <v>1142.108720157571</v>
+        <v>1377.063390823815</v>
       </c>
       <c r="E38" t="n">
-        <v>1142.108720157571</v>
+        <v>991.2751382255703</v>
       </c>
       <c r="F38" t="n">
-        <v>731.1228153679633</v>
+        <v>580.2892334359628</v>
       </c>
       <c r="G38" t="n">
         <v>423.1386449296419</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L38" t="n">
         <v>772.8691714549147</v>
@@ -7187,37 +7189,37 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q38" t="n">
         <v>2474.446703561745</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U38" t="n">
-        <v>2237.305650629176</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V38" t="n">
-        <v>2237.305650629176</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="W38" t="n">
-        <v>1884.536995359062</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="X38" t="n">
-        <v>1511.071237097982</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="Y38" t="n">
-        <v>1511.071237097982</v>
+        <v>2490.891446435099</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416488</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H39" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
-        <v>109.2358024440159</v>
+        <v>112.9310127909885</v>
       </c>
       <c r="K39" t="n">
-        <v>550.765992504644</v>
+        <v>292.6406182091638</v>
       </c>
       <c r="L39" t="n">
-        <v>838.7302756873065</v>
+        <v>580.6049013918264</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.127879935978</v>
+        <v>1197.100534384513</v>
       </c>
       <c r="N39" t="n">
-        <v>1573.340446166283</v>
+        <v>1813.5961673772</v>
       </c>
       <c r="O39" t="n">
-        <v>1898.02606388004</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852665</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T39" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1677.811114891309</v>
+        <v>795.8426522949551</v>
       </c>
       <c r="C40" t="n">
-        <v>1677.811114891309</v>
+        <v>626.9064693670482</v>
       </c>
       <c r="D40" t="n">
-        <v>1649.933487006656</v>
+        <v>476.7898299547124</v>
       </c>
       <c r="E40" t="n">
-        <v>1502.020393424263</v>
+        <v>476.7898299547124</v>
       </c>
       <c r="F40" t="n">
-        <v>1355.130445926352</v>
+        <v>329.8998824568021</v>
       </c>
       <c r="G40" t="n">
-        <v>1187.117431366671</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H40" t="n">
-        <v>1038.142480767769</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
-        <v>931.4889071588736</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
-        <v>955.1183582849479</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K40" t="n">
-        <v>1123.785641879239</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>1395.148129369607</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M40" t="n">
-        <v>1691.650947694422</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N40" t="n">
-        <v>1986.53820813771</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.898026528774</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
-        <v>2438.737456460602</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>2490.891446435098</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>2387.114261342223</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S40" t="n">
-        <v>2190.022821712272</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T40" t="n">
-        <v>1966.930900562087</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U40" t="n">
-        <v>1677.811114891309</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="V40" t="n">
-        <v>1677.811114891309</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.811114891309</v>
+        <v>795.8426522949551</v>
       </c>
       <c r="X40" t="n">
-        <v>1677.811114891309</v>
+        <v>795.8426522949551</v>
       </c>
       <c r="Y40" t="n">
-        <v>1677.811114891309</v>
+        <v>795.8426522949551</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.372987065064</v>
+        <v>1215.554503256966</v>
       </c>
       <c r="C41" t="n">
-        <v>1413.410470124652</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="D41" t="n">
-        <v>1413.410470124652</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E41" t="n">
-        <v>1027.622217526408</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F41" t="n">
-        <v>616.6363127368006</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G41" t="n">
-        <v>200.8723740848241</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L41" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326144</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="U41" t="n">
-        <v>2155.838745326144</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="V41" t="n">
-        <v>2155.838745326144</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="W41" t="n">
-        <v>2155.838745326144</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="X41" t="n">
-        <v>1782.372987065064</v>
+        <v>1992.293675296899</v>
       </c>
       <c r="Y41" t="n">
-        <v>1782.372987065064</v>
+        <v>1602.154343321087</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488151</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H42" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440159</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621912</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L42" t="n">
-        <v>819.2919819292621</v>
+        <v>576.9096910448538</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.689586177934</v>
+        <v>966.7130713194433</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.18521917062</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.870836884377</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.126603646086</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T42" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>478.1240973627647</v>
+        <v>517.4570245754893</v>
       </c>
       <c r="C43" t="n">
-        <v>478.1240973627647</v>
+        <v>348.5208416475824</v>
       </c>
       <c r="D43" t="n">
-        <v>365.7439370707765</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E43" t="n">
         <v>217.8308434883834</v>
@@ -7558,25 +7560,25 @@
         <v>217.8308434883834</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477626</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7585,34 +7587,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q43" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112051</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S43" t="n">
-        <v>1505.443183112051</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T43" t="n">
-        <v>1505.443183112051</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U43" t="n">
-        <v>1216.323397441273</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="V43" t="n">
-        <v>1216.323397441273</v>
+        <v>1027.66677375598</v>
       </c>
       <c r="W43" t="n">
-        <v>926.9062274043122</v>
+        <v>738.2496037190194</v>
       </c>
       <c r="X43" t="n">
-        <v>698.9166765062948</v>
+        <v>738.2496037190194</v>
       </c>
       <c r="Y43" t="n">
-        <v>478.1240973627647</v>
+        <v>517.4570245754893</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1989.584140515692</v>
+        <v>1245.530189310698</v>
       </c>
       <c r="C44" t="n">
-        <v>1620.621623575281</v>
+        <v>876.567672370286</v>
       </c>
       <c r="D44" t="n">
-        <v>1262.35592496853</v>
+        <v>876.567672370286</v>
       </c>
       <c r="E44" t="n">
         <v>876.567672370286</v>
@@ -7646,13 +7648,13 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819826</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799478</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549141</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
@@ -7661,10 +7663,10 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q44" t="n">
         <v>2474.446703561745</v>
@@ -7673,25 +7675,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T44" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="U44" t="n">
-        <v>2490.891446435098</v>
+        <v>2302.827490185462</v>
       </c>
       <c r="V44" t="n">
-        <v>2490.891446435098</v>
+        <v>1971.764602841892</v>
       </c>
       <c r="W44" t="n">
-        <v>2379.723472491504</v>
+        <v>1618.995947571778</v>
       </c>
       <c r="X44" t="n">
-        <v>2379.723472491504</v>
+        <v>1245.530189310698</v>
       </c>
       <c r="Y44" t="n">
-        <v>1989.584140515692</v>
+        <v>1245.530189310698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870196</v>
@@ -7728,22 +7730,22 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>560.6342506504908</v>
+        <v>531.3276987465996</v>
       </c>
       <c r="L45" t="n">
-        <v>848.5985338331533</v>
+        <v>819.2919819292621</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.996138081825</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.208704312129</v>
+        <v>1791.18521917062</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025886</v>
+        <v>2115.870836884377</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787595</v>
+        <v>2357.126603646086</v>
       </c>
       <c r="Q45" t="n">
         <v>2468.480498228519</v>
@@ -7758,19 +7760,19 @@
         <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>366.6671054390019</v>
+        <v>792.5121900364234</v>
       </c>
       <c r="C46" t="n">
-        <v>197.7309225110951</v>
+        <v>623.5760071085165</v>
       </c>
       <c r="D46" t="n">
-        <v>197.7309225110951</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="E46" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870196</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I46" t="n">
         <v>49.81782892870196</v>
@@ -7834,22 +7836,22 @@
         <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1541.199358553637</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U46" t="n">
-        <v>1541.199358553637</v>
+        <v>1530.711490114932</v>
       </c>
       <c r="V46" t="n">
-        <v>1286.51487034775</v>
+        <v>1530.711490114932</v>
       </c>
       <c r="W46" t="n">
-        <v>997.0977003107892</v>
+        <v>1241.294320077971</v>
       </c>
       <c r="X46" t="n">
-        <v>769.1081494127718</v>
+        <v>1013.304769179953</v>
       </c>
       <c r="Y46" t="n">
-        <v>548.3155702692417</v>
+        <v>792.5121900364234</v>
       </c>
     </row>
   </sheetData>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>148.342139193227</v>
+        <v>220.0452252569063</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>331.8498482929537</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>220.0452252569075</v>
       </c>
       <c r="Q15" t="n">
-        <v>175.297935397318</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.967937521058033</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>9.967937521057081</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>141.3768829333165</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165477</v>
+        <v>239.6798654165475</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>118.7395615125288</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>282.1447570480286</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>258.0892398948638</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>89.23761944180217</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.80747155040979</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>7.177264930046988</v>
+        <v>72.89368480302943</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948638</v>
+        <v>82.86162232408736</v>
       </c>
       <c r="O27" t="n">
-        <v>299.3149071776516</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>72.89368480302943</v>
       </c>
       <c r="L29" t="n">
-        <v>72.89368480302954</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10188,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>195.8611932580297</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>244.237181403361</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>258.0892398948638</v>
       </c>
       <c r="O30" t="n">
-        <v>313.1669656691544</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72.89368480302949</v>
+        <v>72.89368480302943</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>195.8611932580299</v>
+        <v>39.80747155040996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>282.1447570480287</v>
       </c>
       <c r="N33" t="n">
         <v>258.0892398948638</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053383</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>188.6850150503375</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>141.3768829333164</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053383</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3.732535704012648</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>263.7353825697126</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>242.6825466776936</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053383</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>244.8305968529378</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>34.75330911708886</v>
       </c>
       <c r="N42" t="n">
-        <v>239.6798654165475</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>148.3421391932271</v>
+        <v>118.7395615125289</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>239.6798654165475</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>83.50361430844259</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>80.19498969582204</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0499378478622</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>71.44310047545008</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>71.44310047544998</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.3729466408764</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23512,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>80.96738115143543</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.44310047544998</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23631,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>210.179616447698</v>
+        <v>107.440203205752</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>63.84181200489024</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>206.3544455199352</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>71.44310047545002</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.55384955560514</v>
       </c>
       <c r="E19" t="n">
-        <v>18.27720817046006</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
@@ -24020,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>64.45339568771985</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>23.66053738693358</v>
       </c>
     </row>
     <row r="21">
@@ -24063,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298476</v>
+        <v>71.44310047545001</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>44.81953269458691</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>75.29432626063655</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>153.5665001468939</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>308.8023037674027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.8668348789003</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>195.1246695787008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>154.9804470104093</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>275.6151300955036</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>25.51131139434534</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>107.4402032057517</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>83.77778573961751</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>67.96895394968166</v>
@@ -24731,16 +24733,16 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>124.6940425449176</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
         <v>286.2285878140705</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.125037116243</v>
+        <v>168.2535461533057</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>216.282506041659</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>159.359248396885</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>143.1671619316191</v>
       </c>
       <c r="X34" t="n">
-        <v>207.5594362612462</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>286.110736850813</v>
+        <v>376.7413072502787</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25208,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25293,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>71.44310047544775</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.0680064527796</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>105.5870378728063</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.853165332945082</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>106.7019705315185</v>
+        <v>256.027216644199</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25445,16 +25447,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>50.14070125298481</v>
       </c>
       <c r="C39" t="n">
-        <v>71.44310047545008</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.0166214124058</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>142.1238903869848</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>152.0746541866879</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>67.96895394968166</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>83.03399837781573</v>
       </c>
       <c r="U41" t="n">
         <v>251.0499378478622</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>50.14070125298477</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>71.44310047545002</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>37.35911432914403</v>
+        <v>19.23237484060533</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,19 +25839,19 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>189.6541041324233</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>239.1846745132554</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>71.44310047545002</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>50.14070125298571</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>153.5202023839065</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>208.5047985049761</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677965.0638477762</v>
+        <v>677965.0638477763</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677965.0638477763</v>
+        <v>677965.0638477762</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>690442.9625340216</v>
+        <v>690442.9625340215</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690442.9625340216</v>
+        <v>690442.9625340217</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677965.0638477765</v>
+        <v>677965.0638477763</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677965.063847776</v>
+        <v>677965.0638477762</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
         <v>532529.620166075</v>
@@ -26323,37 +26325,37 @@
         <v>391531.8826113116</v>
       </c>
       <c r="F2" t="n">
-        <v>391531.8826113115</v>
+        <v>391531.8826113116</v>
       </c>
       <c r="G2" t="n">
         <v>391531.8826113114</v>
       </c>
       <c r="H2" t="n">
-        <v>391531.8826113115</v>
+        <v>391531.8826113114</v>
       </c>
       <c r="I2" t="n">
-        <v>397197.3204790147</v>
+        <v>397197.3204790148</v>
       </c>
       <c r="J2" t="n">
-        <v>397197.3204790145</v>
+        <v>397197.3204790146</v>
       </c>
       <c r="K2" t="n">
-        <v>397197.3204790145</v>
+        <v>397197.3204790146</v>
       </c>
       <c r="L2" t="n">
         <v>397197.3204790148</v>
       </c>
       <c r="M2" t="n">
+        <v>391531.8826113114</v>
+      </c>
+      <c r="N2" t="n">
         <v>391531.8826113116</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>391531.8826113117</v>
+      </c>
+      <c r="P2" t="n">
         <v>391531.8826113115</v>
-      </c>
-      <c r="O2" t="n">
-        <v>391531.8826113116</v>
-      </c>
-      <c r="P2" t="n">
-        <v>391531.8826113114</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648232</v>
+        <v>4895.439270648292</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>414772.3986129589</v>
+        <v>414772.398612959</v>
       </c>
       <c r="D4" t="n">
         <v>414772.3986129589</v>
@@ -26427,19 +26429,19 @@
         <v>15880.58142742344</v>
       </c>
       <c r="F4" t="n">
-        <v>15880.58142742344</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="G4" t="n">
-        <v>15880.58142742344</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="H4" t="n">
-        <v>15880.58142742346</v>
+        <v>15880.58142742345</v>
       </c>
       <c r="I4" t="n">
         <v>18784.15557418252</v>
       </c>
       <c r="J4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418252</v>
       </c>
       <c r="K4" t="n">
         <v>18784.15557418253</v>
@@ -26448,16 +26450,16 @@
         <v>18784.15557418253</v>
       </c>
       <c r="M4" t="n">
-        <v>15880.58142742352</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="N4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="O4" t="n">
         <v>15880.58142742345</v>
       </c>
       <c r="P4" t="n">
-        <v>15880.58142742344</v>
+        <v>15880.58142742345</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26481,13 @@
         <v>57906.41050425671</v>
       </c>
       <c r="F5" t="n">
+        <v>57906.41050425672</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57906.41050425672</v>
+      </c>
+      <c r="H5" t="n">
         <v>57906.41050425671</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57906.41050425671</v>
-      </c>
-      <c r="H5" t="n">
-        <v>57906.41050425672</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26497,16 +26499,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="L5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="P5" t="n">
         <v>57906.41050425671</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84129.62155311607</v>
+        <v>84129.62155311616</v>
       </c>
       <c r="C6" t="n">
-        <v>84129.62155311607</v>
+        <v>84129.62155311598</v>
       </c>
       <c r="D6" t="n">
-        <v>84129.62155311619</v>
+        <v>84129.62155311616</v>
       </c>
       <c r="E6" t="n">
-        <v>-606906.6886964923</v>
+        <v>-606906.6886964925</v>
       </c>
       <c r="F6" t="n">
-        <v>317744.8906796313</v>
+        <v>317744.8906796314</v>
       </c>
       <c r="G6" t="n">
         <v>317744.8906796313</v>
@@ -26540,10 +26542,10 @@
         <v>317744.8906796313</v>
       </c>
       <c r="I6" t="n">
-        <v>314492.0251616455</v>
+        <v>314492.0251616456</v>
       </c>
       <c r="J6" t="n">
-        <v>319387.4644322936</v>
+        <v>319387.4644322937</v>
       </c>
       <c r="K6" t="n">
         <v>319387.4644322937</v>
@@ -26552,7 +26554,7 @@
         <v>319387.4644322939</v>
       </c>
       <c r="M6" t="n">
-        <v>167147.5524327728</v>
+        <v>167147.5524327727</v>
       </c>
       <c r="N6" t="n">
         <v>317744.8906796314</v>
@@ -26747,7 +26749,7 @@
         <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074872</v>
@@ -26765,16 +26767,16 @@
         <v>919.4890146074872</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="P3" t="n">
         <v>919.4890146074871</v>
@@ -26799,13 +26801,13 @@
         <v>622.7228616087745</v>
       </c>
       <c r="F4" t="n">
+        <v>622.7228616087747</v>
+      </c>
+      <c r="G4" t="n">
+        <v>622.7228616087747</v>
+      </c>
+      <c r="H4" t="n">
         <v>622.7228616087745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>622.7228616087745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>622.7228616087747</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
@@ -26820,13 +26822,13 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P4" t="n">
         <v>622.7228616087745</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831586</v>
+        <v>18.40937447831609</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304578</v>
+        <v>604.3134871304577</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207242</v>
@@ -32005,10 +32007,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O14" t="n">
         <v>622.8082601404915</v>
@@ -32017,13 +32019,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T14" t="n">
         <v>16.18115843796693</v>
@@ -32072,13 +32074,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L15" t="n">
         <v>429.4273930956949</v>
@@ -32090,10 +32092,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q15" t="n">
         <v>252.460455482418</v>
@@ -32102,7 +32104,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T15" t="n">
         <v>7.971796268153589</v>
@@ -32175,16 +32177,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U16" t="n">
         <v>0.09044154242040867</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207242</v>
@@ -33427,10 +33429,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404915</v>
@@ -33439,13 +33441,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796693</v>
@@ -33494,13 +33496,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
         <v>429.4273930956949</v>
@@ -33512,10 +33514,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
         <v>252.460455482418</v>
@@ -33524,7 +33526,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
         <v>7.971796268153589</v>
@@ -33597,16 +33599,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U34" t="n">
         <v>0.09044154242040867</v>
@@ -33646,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207242</v>
@@ -33664,10 +33666,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404915</v>
@@ -33676,13 +33678,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796693</v>
@@ -33731,13 +33733,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
         <v>429.4273930956949</v>
@@ -33749,10 +33751,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
         <v>252.460455482418</v>
@@ -33761,7 +33763,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
         <v>7.971796268153589</v>
@@ -33834,16 +33836,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U37" t="n">
         <v>0.09044154242040867</v>
@@ -33883,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207242</v>
@@ -33901,10 +33903,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404915</v>
@@ -33913,13 +33915,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796693</v>
@@ -33968,13 +33970,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
         <v>429.4273930956949</v>
@@ -33986,10 +33988,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
         <v>252.460455482418</v>
@@ -33998,7 +34000,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
         <v>7.971796268153589</v>
@@ -34071,16 +34073,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U40" t="n">
         <v>0.09044154242040867</v>
@@ -34120,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207242</v>
@@ -34138,10 +34140,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
         <v>622.8082601404915</v>
@@ -34150,13 +34152,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
@@ -34205,13 +34207,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
         <v>429.4273930956949</v>
@@ -34223,10 +34225,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
         <v>252.460455482418</v>
@@ -34235,7 +34237,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
         <v>7.971796268153589</v>
@@ -34308,16 +34310,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U43" t="n">
         <v>0.09044154242040867</v>
@@ -34366,7 +34368,7 @@
         <v>142.5069356207242</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936365</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
         <v>470.2008070025212</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K12" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158207</v>
@@ -35504,10 +35506,10 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
-        <v>392.034832891923</v>
+        <v>463.7379189556023</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R12" t="n">
         <v>22.637321420787</v>
@@ -35647,16 +35649,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L14" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O14" t="n">
         <v>392.7100487188047</v>
@@ -35665,10 +35667,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597373</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K15" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L15" t="n">
-        <v>622.7228616087745</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M15" t="n">
         <v>358.9874790390621</v>
@@ -35741,13 +35743,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P15" t="n">
-        <v>243.692693698696</v>
+        <v>463.7379189556034</v>
       </c>
       <c r="Q15" t="n">
-        <v>287.7766167937145</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L16" t="n">
         <v>274.1035227175431</v>
@@ -35823,7 +35825,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161268</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M17" t="n">
         <v>418.7159795815592</v>
@@ -35902,7 +35904,7 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605024</v>
+        <v>176.868056160503</v>
       </c>
       <c r="R17" t="n">
         <v>16.61085138722495</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597373</v>
+        <v>69.98609258703176</v>
       </c>
       <c r="K18" t="n">
         <v>445.9900909703315</v>
@@ -35972,7 +35974,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
-        <v>393.010933713284</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
         <v>327.9652704179363</v>
@@ -36200,7 +36202,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9017368910694</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158207</v>
@@ -36209,7 +36211,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O21" t="n">
         <v>327.9652704179363</v>
@@ -36218,10 +36220,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963965</v>
+        <v>231.2182429089253</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>290.8730133158207</v>
       </c>
       <c r="M24" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N24" t="n">
         <v>641.1322360870907</v>
@@ -36452,13 +36454,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
-        <v>243.692693698696</v>
+        <v>332.9303131404982</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.2861529468063</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K26" t="n">
-        <v>257.2882208875877</v>
+        <v>323.0046407605701</v>
       </c>
       <c r="L26" t="n">
         <v>347.5592641161275</v>
@@ -36616,7 +36618,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>82.3272712602074</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>60.01815506597373</v>
       </c>
       <c r="K27" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158207</v>
@@ -36683,16 +36685,16 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870907</v>
+        <v>465.9046185163143</v>
       </c>
       <c r="O27" t="n">
-        <v>627.2801775955879</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P27" t="n">
         <v>243.692693698696</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R27" t="n">
         <v>22.637321420787</v>
@@ -36832,10 +36834,10 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575407</v>
+        <v>323.0046407605701</v>
       </c>
       <c r="L29" t="n">
-        <v>420.4529489191571</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M29" t="n">
         <v>418.7159795815592</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577529</v>
+        <v>377.3860472157826</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>603.2246604424231</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>383.042996192227</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O30" t="n">
-        <v>641.1322360870907</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P30" t="n">
         <v>243.692693698696</v>
@@ -36932,7 +36934,7 @@
         <v>112.4786813963965</v>
       </c>
       <c r="R30" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
         <v>392.7100487188047</v>
@@ -37087,10 +37089,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063825</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K33" t="n">
-        <v>377.3860472157828</v>
+        <v>221.3323255081629</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390621</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="N33" t="n">
         <v>641.1322360870907</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
         <v>274.1035227175431</v>
@@ -37245,7 +37247,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575422</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
         <v>392.7100487188047</v>
@@ -37324,10 +37326,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605023</v>
+        <v>176.868056160503</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L36" t="n">
-        <v>479.5580283661582</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390621</v>
+        <v>500.3643619723786</v>
       </c>
       <c r="N36" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O36" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P36" t="n">
-        <v>562.1554623386331</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
         <v>112.4786813963965</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K37" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
         <v>274.1035227175431</v>
@@ -37482,7 +37484,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815584</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
         <v>392.7100487188047</v>
@@ -37561,10 +37563,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.0181550659737</v>
+        <v>63.75069076998638</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9900909703314</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390621</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="N39" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O39" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>486.3752403763896</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
         <v>112.4786813963965</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K40" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
         <v>274.1035227175431</v>
@@ -37719,7 +37721,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
         <v>392.7100487188047</v>
@@ -37798,10 +37800,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.0181550659737</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K42" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L42" t="n">
-        <v>535.7036101687585</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390621</v>
+        <v>393.740788156151</v>
       </c>
       <c r="N42" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179363</v>
@@ -37877,10 +37879,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078699</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L43" t="n">
         <v>274.1035227175431</v>
@@ -37956,7 +37958,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669502</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K44" t="n">
         <v>250.1109559575406</v>
@@ -38096,7 +38098,7 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8669931509799</v>
+        <v>300.2644154702817</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158207</v>
@@ -38105,7 +38107,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N45" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O45" t="n">
         <v>327.9652704179363</v>
@@ -38114,7 +38116,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R45" t="n">
         <v>22.63732142078699</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1365628.719317028</v>
+        <v>1333347.315786145</v>
       </c>
     </row>
     <row r="7">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>281.9143251516016</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4236641954268</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>101.2653985128657</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874019</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.0838692163609</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>118.2694521832852</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>220.6512727398134</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>123.8806927483478</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1745,7 +1745,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V15" t="n">
-        <v>161.3574866739762</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
@@ -1785,7 +1785,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>118.2694521832852</v>
+        <v>5.65643572565741</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>176.0736968693767</v>
       </c>
       <c r="X17" t="n">
-        <v>163.3766551585338</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874063</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.50388216741982</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>99.06162346260722</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>273.1515331762978</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
@@ -2134,22 +2134,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>362.57740126912</v>
+        <v>105.4087529828636</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>21.69126064627583</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355336</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>145.5666756780463</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>159.7371275422512</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>53.34819097927057</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>55.75779979301957</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>53.76397372915756</v>
       </c>
       <c r="T25" t="n">
-        <v>38.99416705978253</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>124.7144218542249</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>94.11597058296549</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>100.7045585449828</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>118.2694521832854</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.80605672835242</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>82.22064858124685</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246426</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,10 +2967,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>130.3434907082529</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.33110719878907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>195.3237932237977</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>40.86038105890253</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>143.3558364049719</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>73.49677815128935</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>34.86499201517804</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>125.6190767149344</v>
       </c>
       <c r="U35" t="n">
         <v>251.0499378478622</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>192.192932426668</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355354</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>180.2518826854705</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>223.8564900560921</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>208.2610605044185</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>155.5790826212577</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>270.6126556217522</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>116.3924823968825</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3599,7 +3599,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874019</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.20899402709975</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
@@ -3717,19 +3717,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>187.8384036712177</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>267.6110232577823</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>123.8806927483487</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>85.22504708635316</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T42" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512181</v>
       </c>
       <c r="U42" t="n">
         <v>225.8112657109832</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>129.383098177607</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>94.79299548590285</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>61.39583371543893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>197.414431992052</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>155.5419945243187</v>
+        <v>155.5419945243184</v>
       </c>
     </row>
     <row r="46">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>77.72378930909441</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>174.0328142523753</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1416.470249991908</v>
+        <v>1494.397663383251</v>
       </c>
       <c r="C11" t="n">
-        <v>1047.507733051496</v>
+        <v>1209.635718785673</v>
       </c>
       <c r="D11" t="n">
-        <v>689.242034444746</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="E11" t="n">
-        <v>689.242034444746</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="F11" t="n">
-        <v>689.242034444746</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G11" t="n">
-        <v>273.4780957927695</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H11" t="n">
         <v>49.81782892870196</v>
@@ -5047,7 +5047,7 @@
         <v>428.7854999799486</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240658</v>
@@ -5068,25 +5068,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326144</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U11" t="n">
-        <v>2155.838745326144</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="V11" t="n">
-        <v>2155.838745326144</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="W11" t="n">
-        <v>1803.07009005603</v>
+        <v>1884.536995359062</v>
       </c>
       <c r="X11" t="n">
-        <v>1803.07009005603</v>
+        <v>1884.536995359062</v>
       </c>
       <c r="Y11" t="n">
-        <v>1803.07009005603</v>
+        <v>1494.397663383251</v>
       </c>
     </row>
     <row r="12">
@@ -5099,49 +5099,49 @@
         <v>859.1382992416488</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605219</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992706</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938151</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757</v>
+        <v>229.9788473207001</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005568</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088818</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I12" t="n">
         <v>49.81782892870196</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>550.7659925046441</v>
+        <v>583.0451988570699</v>
       </c>
       <c r="L12" t="n">
-        <v>838.7302756873066</v>
+        <v>871.0094820397323</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.127879935978</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N12" t="n">
-        <v>1573.340446166283</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O12" t="n">
-        <v>1898.02606388004</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646086</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R12" t="n">
         <v>2490.891446435098</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.315231116727</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="C13" t="n">
-        <v>918.37904818882</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I13" t="n">
         <v>49.81782892870196</v>
@@ -5223,28 +5223,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204926</v>
+        <v>1359.903921277343</v>
       </c>
       <c r="T13" t="n">
-        <v>1609.220368204926</v>
+        <v>1136.812000127159</v>
       </c>
       <c r="U13" t="n">
-        <v>1609.220368204926</v>
+        <v>1136.812000127159</v>
       </c>
       <c r="V13" t="n">
-        <v>1609.220368204926</v>
+        <v>882.1275119212717</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.220368204926</v>
+        <v>592.7103418843111</v>
       </c>
       <c r="X13" t="n">
-        <v>1489.756275090497</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.963695946966</v>
+        <v>364.7207909862938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1085.407362648338</v>
+        <v>1215.554503256966</v>
       </c>
       <c r="C14" t="n">
-        <v>1085.407362648338</v>
+        <v>846.5919863165537</v>
       </c>
       <c r="D14" t="n">
-        <v>727.1416640415878</v>
+        <v>846.5919863165537</v>
       </c>
       <c r="E14" t="n">
-        <v>341.3534114433435</v>
+        <v>460.8037337183095</v>
       </c>
       <c r="F14" t="n">
-        <v>341.3534114433435</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G14" t="n">
-        <v>341.3534114433435</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O14" t="n">
         <v>2002.031077317523</v>
@@ -5299,31 +5299,31 @@
         <v>2299.347327962848</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326145</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326145</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="V14" t="n">
-        <v>1824.775857982574</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="W14" t="n">
-        <v>1472.00720271246</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="X14" t="n">
-        <v>1472.00720271246</v>
+        <v>1992.293675296899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1472.00720271246</v>
+        <v>1602.154343321087</v>
       </c>
     </row>
     <row r="15">
@@ -5342,55 +5342,55 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>71.33540390088818</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>550.765992504644</v>
+        <v>583.0451988570699</v>
       </c>
       <c r="L15" t="n">
-        <v>838.7302756873065</v>
+        <v>871.0094820397323</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.127879935978</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N15" t="n">
-        <v>1573.340446166283</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O15" t="n">
-        <v>1898.02606388004</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P15" t="n">
-        <v>2357.126603646087</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V15" t="n">
         <v>1769.367539915405</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.315231116727</v>
+        <v>535.7419770151922</v>
       </c>
       <c r="C16" t="n">
-        <v>918.37904818882</v>
+        <v>366.8057940872853</v>
       </c>
       <c r="D16" t="n">
-        <v>768.2624087764842</v>
+        <v>366.8057940872853</v>
       </c>
       <c r="E16" t="n">
-        <v>620.3493151940911</v>
+        <v>366.8057940872853</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>366.8057940872853</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477627</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490677</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T16" t="n">
-        <v>1609.220368204926</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U16" t="n">
-        <v>1609.220368204926</v>
+        <v>796.1400366611371</v>
       </c>
       <c r="V16" t="n">
-        <v>1609.220368204926</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.220368204926</v>
+        <v>541.4555484552502</v>
       </c>
       <c r="X16" t="n">
-        <v>1489.756275090497</v>
+        <v>535.7419770151922</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.963695946966</v>
+        <v>535.7419770151922</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1582.956534786613</v>
+        <v>1162.834297074108</v>
       </c>
       <c r="C17" t="n">
-        <v>1582.956534786613</v>
+        <v>793.8717801336967</v>
       </c>
       <c r="D17" t="n">
-        <v>1224.690836179863</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="E17" t="n">
-        <v>838.9025835816185</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="F17" t="n">
-        <v>838.9025835816185</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G17" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
         <v>428.7854999799486</v>
@@ -5539,28 +5539,28 @@
         <v>2474.446703561746</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="V17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="W17" t="n">
-        <v>2138.122791164984</v>
+        <v>2313.039227375122</v>
       </c>
       <c r="X17" t="n">
-        <v>1973.095866762425</v>
+        <v>1939.573469114042</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.956534786613</v>
+        <v>1549.43413713823</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416493</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605223</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156082542706</v>
+        <v>535.750860299271</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938155</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207005</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005614</v>
       </c>
       <c r="H18" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J18" t="n">
-        <v>119.1040605898634</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K18" t="n">
-        <v>560.6342506504916</v>
+        <v>288.9454078621911</v>
       </c>
       <c r="L18" t="n">
-        <v>848.5985338331541</v>
+        <v>763.7078559446861</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.996138081826</v>
+        <v>1119.105460193357</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.20870431213</v>
+        <v>1498.318026423662</v>
       </c>
       <c r="O18" t="n">
-        <v>1907.894322025887</v>
+        <v>1823.003644137419</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787596</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1749.995732928482</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="C19" t="n">
-        <v>1749.995732928482</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D19" t="n">
-        <v>1649.933487006657</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E19" t="n">
-        <v>1502.020393424264</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F19" t="n">
-        <v>1355.130445926353</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>1187.117431366672</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H19" t="n">
-        <v>1038.14248076777</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I19" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J19" t="n">
-        <v>955.1183582849488</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K19" t="n">
-        <v>1123.78564187924</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L19" t="n">
-        <v>1395.148129369608</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M19" t="n">
-        <v>1691.650947694422</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N19" t="n">
-        <v>1986.538208137711</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O19" t="n">
-        <v>2242.898026528775</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>2438.737456460603</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q19" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R19" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>2293.800006805147</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T19" t="n">
-        <v>2293.800006805147</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U19" t="n">
-        <v>2004.680221134369</v>
+        <v>1333.309728632908</v>
       </c>
       <c r="V19" t="n">
-        <v>1749.995732928482</v>
+        <v>1078.625240427021</v>
       </c>
       <c r="W19" t="n">
-        <v>1749.995732928482</v>
+        <v>789.2080703900601</v>
       </c>
       <c r="X19" t="n">
-        <v>1749.995732928482</v>
+        <v>789.2080703900601</v>
       </c>
       <c r="Y19" t="n">
-        <v>1749.995732928482</v>
+        <v>568.41549124653</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>465.5817675806784</v>
+        <v>1631.318441908942</v>
       </c>
       <c r="C20" t="n">
-        <v>465.5817675806784</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D20" t="n">
-        <v>465.5817675806784</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E20" t="n">
-        <v>465.5817675806784</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F20" t="n">
         <v>465.5817675806784</v>
@@ -5755,10 +5755,10 @@
         <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240658</v>
@@ -5782,22 +5782,22 @@
         <v>2364.843483837421</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326144</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="U20" t="n">
-        <v>1902.252949520223</v>
+        <v>2111.2576880315</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.190062176652</v>
+        <v>2111.2576880315</v>
       </c>
       <c r="W20" t="n">
-        <v>1218.421406906538</v>
+        <v>2111.2576880315</v>
       </c>
       <c r="X20" t="n">
-        <v>1218.421406906538</v>
+        <v>1737.79192977042</v>
       </c>
       <c r="Y20" t="n">
-        <v>852.1816076448002</v>
+        <v>1631.318441908942</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207001</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005568</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870196</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310207</v>
+        <v>141.5150087964423</v>
       </c>
       <c r="K21" t="n">
-        <v>413.775532849196</v>
+        <v>583.0451988570704</v>
       </c>
       <c r="L21" t="n">
-        <v>701.7398160318585</v>
+        <v>871.0094820397329</v>
       </c>
       <c r="M21" t="n">
-        <v>1057.13742028053</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N21" t="n">
-        <v>1673.633053273217</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O21" t="n">
-        <v>1998.318670986974</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.574437748683</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R21" t="n">
         <v>2490.891446435098</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T21" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>918.37904818882</v>
+        <v>348.9094189399397</v>
       </c>
       <c r="C22" t="n">
-        <v>918.37904818882</v>
+        <v>348.9094189399397</v>
       </c>
       <c r="D22" t="n">
-        <v>768.2624087764842</v>
+        <v>198.792779527604</v>
       </c>
       <c r="E22" t="n">
-        <v>620.3493151940911</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F22" t="n">
-        <v>473.4593676961807</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G22" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I22" t="n">
         <v>49.81782892870196</v>
@@ -5934,28 +5934,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R22" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S22" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="T22" t="n">
-        <v>1462.183322065485</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U22" t="n">
-        <v>1173.063536394707</v>
+        <v>1121.000628080805</v>
       </c>
       <c r="V22" t="n">
-        <v>918.37904818882</v>
+        <v>866.3161398749178</v>
       </c>
       <c r="W22" t="n">
-        <v>918.37904818882</v>
+        <v>576.8989698379571</v>
       </c>
       <c r="X22" t="n">
-        <v>918.37904818882</v>
+        <v>348.9094189399397</v>
       </c>
       <c r="Y22" t="n">
-        <v>918.37904818882</v>
+        <v>348.9094189399397</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1140.682341440213</v>
+        <v>1622.094373533546</v>
       </c>
       <c r="C23" t="n">
-        <v>771.7198244998012</v>
+        <v>1622.094373533546</v>
       </c>
       <c r="D23" t="n">
-        <v>771.7198244998012</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E23" t="n">
-        <v>771.7198244998012</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F23" t="n">
-        <v>771.7198244998012</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G23" t="n">
-        <v>355.9558858478247</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
         <v>182.6484035402486</v>
@@ -6004,37 +6004,37 @@
         <v>1614.720879044172</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2003.503827275788</v>
       </c>
       <c r="P23" t="n">
         <v>2372.984825876113</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.64188275314</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U23" t="n">
-        <v>2257.056086947219</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="V23" t="n">
-        <v>2257.056086947219</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="W23" t="n">
-        <v>1904.287431677104</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="X23" t="n">
-        <v>1530.821673416025</v>
+        <v>2065.015223489607</v>
       </c>
       <c r="Y23" t="n">
-        <v>1140.682341440213</v>
+        <v>2008.694213597668</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549141</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737871</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339657</v>
       </c>
       <c r="G24" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033213</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.8081538591538</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>290.4181578204566</v>
+        <v>677.068867449914</v>
       </c>
       <c r="L24" t="n">
-        <v>578.3824410031191</v>
+        <v>965.0331506325765</v>
       </c>
       <c r="M24" t="n">
-        <v>933.7800452517906</v>
+        <v>1320.430754881248</v>
       </c>
       <c r="N24" t="n">
-        <v>1568.50095897801</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O24" t="n">
-        <v>1893.186576691767</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P24" t="n">
-        <v>2222.787586700861</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.117996141784</v>
@@ -6095,16 +6095,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2042.623807260163</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="C25" t="n">
-        <v>1873.687624332256</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="D25" t="n">
-        <v>1723.570984919921</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="E25" t="n">
-        <v>1575.657891337528</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="F25" t="n">
-        <v>1428.767943839617</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G25" t="n">
-        <v>1260.754929279936</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H25" t="n">
-        <v>1111.779978681034</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792505</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R25" t="n">
-        <v>2460.751759255488</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.660319625537</v>
+        <v>1556.386073992325</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.272272090403</v>
+        <v>1333.294152842141</v>
       </c>
       <c r="U25" t="n">
-        <v>2224.272272090403</v>
+        <v>1044.174367171362</v>
       </c>
       <c r="V25" t="n">
-        <v>2224.272272090403</v>
+        <v>789.4898789654753</v>
       </c>
       <c r="W25" t="n">
-        <v>2224.272272090403</v>
+        <v>500.0727089285147</v>
       </c>
       <c r="X25" t="n">
-        <v>2224.272272090403</v>
+        <v>272.0831580304974</v>
       </c>
       <c r="Y25" t="n">
-        <v>2224.272272090403</v>
+        <v>51.29057888696727</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>420.253095827379</v>
+        <v>957.2131641061026</v>
       </c>
       <c r="C26" t="n">
-        <v>51.29057888696726</v>
+        <v>588.2506471656909</v>
       </c>
       <c r="D26" t="n">
-        <v>51.29057888696726</v>
+        <v>588.2506471656909</v>
       </c>
       <c r="E26" t="n">
-        <v>51.29057888696726</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>502.422997893213</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681792</v>
+        <v>846.5066693681797</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153923</v>
@@ -6247,31 +6247,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2438.480981750686</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T26" t="n">
-        <v>2229.476243239409</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.890447433488</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="V26" t="n">
-        <v>1644.827560089917</v>
+        <v>2107.418094407116</v>
       </c>
       <c r="W26" t="n">
-        <v>1292.058904819803</v>
+        <v>2107.418094407116</v>
       </c>
       <c r="X26" t="n">
-        <v>1196.992267867312</v>
+        <v>1733.952336146036</v>
       </c>
       <c r="Y26" t="n">
-        <v>806.8529358915007</v>
+        <v>1343.813004170224</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737875</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915351</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>552.2387424629094</v>
+        <v>656.6826967703352</v>
       </c>
       <c r="L27" t="n">
-        <v>840.2030256455719</v>
+        <v>944.6469799529976</v>
       </c>
       <c r="M27" t="n">
-        <v>1195.600629894243</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
-        <v>1656.846202225395</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="28">
@@ -6381,13 +6381,13 @@
         <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073331</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L28" t="n">
         <v>514.9498010977007</v>
@@ -6411,25 +6411,25 @@
         <v>1610.693118163191</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163191</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U28" t="n">
-        <v>1610.693118163191</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="V28" t="n">
-        <v>1610.693118163191</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="W28" t="n">
-        <v>1610.693118163191</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="X28" t="n">
-        <v>1491.229025048762</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="Y28" t="n">
-        <v>1270.436445905232</v>
+        <v>1190.509757383056</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.9184027882363</v>
+        <v>1288.276051449673</v>
       </c>
       <c r="C29" t="n">
-        <v>355.9558858478247</v>
+        <v>919.3135345092612</v>
       </c>
       <c r="D29" t="n">
-        <v>355.9558858478247</v>
+        <v>919.3135345092612</v>
       </c>
       <c r="E29" t="n">
-        <v>355.9558858478247</v>
+        <v>533.5252819110169</v>
       </c>
       <c r="F29" t="n">
-        <v>355.9558858478247</v>
+        <v>533.5252819110169</v>
       </c>
       <c r="G29" t="n">
-        <v>355.9558858478247</v>
+        <v>117.7613432590404</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>117.7613432590404</v>
       </c>
       <c r="I29" t="n">
         <v>51.29057888696726</v>
@@ -6466,49 +6466,49 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>502.422997893213</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L29" t="n">
-        <v>846.5066693681792</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2481.477784165285</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U29" t="n">
-        <v>2227.891988359364</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V29" t="n">
-        <v>2227.891988359364</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="W29" t="n">
-        <v>1875.12333308925</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="X29" t="n">
-        <v>1501.65757482817</v>
+        <v>2065.015223489606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1111.518242852358</v>
+        <v>1674.875891513795</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549136</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737866</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125352</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070796</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339647</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033209</v>
+        <v>166.8832661033207</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915338</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
@@ -6545,22 +6545,22 @@
         <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>609.1508641329108</v>
+        <v>656.6826967703352</v>
       </c>
       <c r="L30" t="n">
-        <v>897.1151473155733</v>
+        <v>944.6469799529976</v>
       </c>
       <c r="M30" t="n">
-        <v>1252.512751564245</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N30" t="n">
-        <v>1887.233665290465</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.919283004222</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
         <v>2564.528944348363</v>
@@ -6572,7 +6572,7 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692264</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
@@ -6581,7 +6581,7 @@
         <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
-        <v>1516.602933145469</v>
+        <v>1516.602933145468</v>
       </c>
       <c r="X30" t="n">
         <v>1308.751432939936</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1088.787981074992</v>
+        <v>964.8195484916927</v>
       </c>
       <c r="C31" t="n">
-        <v>919.8517981470852</v>
+        <v>795.8833655637858</v>
       </c>
       <c r="D31" t="n">
-        <v>769.7351587347495</v>
+        <v>645.76672615145</v>
       </c>
       <c r="E31" t="n">
-        <v>621.8220651523563</v>
+        <v>497.8536325690569</v>
       </c>
       <c r="F31" t="n">
-        <v>474.932117654446</v>
+        <v>350.9636850711465</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9191030947646</v>
+        <v>182.9506705114651</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073331</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L31" t="n">
         <v>514.9498010977007</v>
@@ -6648,25 +6648,25 @@
         <v>1610.693118163191</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="U31" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="V31" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="W31" t="n">
-        <v>1321.275948126231</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="X31" t="n">
-        <v>1321.275948126231</v>
+        <v>1185.612127635223</v>
       </c>
       <c r="Y31" t="n">
-        <v>1270.436445905232</v>
+        <v>964.8195484916927</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1414.32401404735</v>
+        <v>1247.002939268963</v>
       </c>
       <c r="C32" t="n">
-        <v>1045.361497106938</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.361497106938</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="E32" t="n">
-        <v>659.5732445086937</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F32" t="n">
-        <v>248.5873397190862</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6703,49 +6703,49 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>502.422997893213</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L32" t="n">
-        <v>846.5066693681792</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275788</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921113</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2397.207869569977</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2397.207869569977</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>2397.207869569977</v>
       </c>
       <c r="W32" t="n">
-        <v>2564.528944348363</v>
+        <v>2397.207869569977</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.063186087283</v>
+        <v>2023.742111308896</v>
       </c>
       <c r="Y32" t="n">
-        <v>1800.923854111471</v>
+        <v>1633.602779333085</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915349</v>
+        <v>72.8081538591538</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022812</v>
+        <v>215.152506709707</v>
       </c>
       <c r="K33" t="n">
-        <v>329.8275546553625</v>
+        <v>656.6826967703352</v>
       </c>
       <c r="L33" t="n">
-        <v>617.791837838025</v>
+        <v>944.6469799529976</v>
       </c>
       <c r="M33" t="n">
-        <v>1252.512751564245</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1887.233665290465</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.919283004222</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>476.9969748361052</v>
+        <v>367.1167093127846</v>
       </c>
       <c r="C34" t="n">
-        <v>308.0607919081983</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="D34" t="n">
-        <v>157.9441524958626</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="E34" t="n">
-        <v>157.9441524958626</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F34" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073331</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L34" t="n">
         <v>514.9498010977007</v>
@@ -6882,28 +6882,28 @@
         <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T34" t="n">
-        <v>1506.915933070317</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U34" t="n">
-        <v>1506.915933070317</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V34" t="n">
-        <v>1252.23144486443</v>
+        <v>843.7969231363417</v>
       </c>
       <c r="W34" t="n">
-        <v>1107.427569707892</v>
+        <v>843.7969231363417</v>
       </c>
       <c r="X34" t="n">
-        <v>879.4380188098751</v>
+        <v>769.5577532865544</v>
       </c>
       <c r="Y34" t="n">
-        <v>658.6454396663449</v>
+        <v>548.7651741430243</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>458.3558085813369</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="C35" t="n">
-        <v>458.3558085813369</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="D35" t="n">
-        <v>458.3558085813369</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E35" t="n">
-        <v>458.3558085813369</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F35" t="n">
-        <v>458.3558085813369</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
-        <v>423.1386449296419</v>
+        <v>49.817828928702</v>
       </c>
       <c r="H35" t="n">
-        <v>118.4733379687845</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870198</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J35" t="n">
         <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799485</v>
       </c>
       <c r="L35" t="n">
         <v>772.8691714549147</v>
@@ -6949,40 +6949,40 @@
         <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2155.838745326145</v>
+        <v>2237.955527559712</v>
       </c>
       <c r="U35" t="n">
-        <v>1902.252949520223</v>
+        <v>1984.36973175379</v>
       </c>
       <c r="V35" t="n">
-        <v>1571.190062176653</v>
+        <v>1653.30684441022</v>
       </c>
       <c r="W35" t="n">
-        <v>1218.421406906539</v>
+        <v>1653.30684441022</v>
       </c>
       <c r="X35" t="n">
-        <v>844.9556486454587</v>
+        <v>1653.30684441022</v>
       </c>
       <c r="Y35" t="n">
-        <v>844.9556486454587</v>
+        <v>1263.167512434408</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
         <v>302.1435952757001</v>
@@ -7010,49 +7010,49 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088824</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870198</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J36" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>413.7755328491961</v>
+        <v>560.6342506504931</v>
       </c>
       <c r="L36" t="n">
-        <v>701.7398160318586</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.100534384513</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N36" t="n">
-        <v>1813.5961673772</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.281785090957</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
         <v>1515.130183187204</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>980.6616575078315</v>
+        <v>620.2106265458077</v>
       </c>
       <c r="C37" t="n">
-        <v>811.7254745799246</v>
+        <v>451.2744436179008</v>
       </c>
       <c r="D37" t="n">
-        <v>661.6088351675888</v>
+        <v>451.2744436179008</v>
       </c>
       <c r="E37" t="n">
-        <v>513.6957415851957</v>
+        <v>303.3613500355077</v>
       </c>
       <c r="F37" t="n">
-        <v>366.8057940872854</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G37" t="n">
-        <v>198.792779527604</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J37" t="n">
         <v>73.4472800547763</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M37" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7113,34 +7113,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q37" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T37" t="n">
-        <v>1609.220368204926</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U37" t="n">
-        <v>1609.220368204926</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="V37" t="n">
-        <v>1609.220368204926</v>
+        <v>830.5753341260285</v>
       </c>
       <c r="W37" t="n">
-        <v>1609.220368204926</v>
+        <v>830.5753341260285</v>
       </c>
       <c r="X37" t="n">
-        <v>1383.102701481601</v>
+        <v>830.5753341260285</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.310122338071</v>
+        <v>620.2106265458077</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2104.291606370977</v>
+        <v>1573.820201863716</v>
       </c>
       <c r="C38" t="n">
-        <v>1735.329089430565</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D38" t="n">
-        <v>1377.063390823815</v>
+        <v>846.5919863165537</v>
       </c>
       <c r="E38" t="n">
-        <v>991.2751382255703</v>
+        <v>460.8037337183095</v>
       </c>
       <c r="F38" t="n">
-        <v>580.2892334359628</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G38" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L38" t="n">
         <v>772.8691714549147</v>
@@ -7192,34 +7192,34 @@
         <v>2002.031077317523</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q38" t="n">
         <v>2474.446703561745</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U38" t="n">
-        <v>2490.891446435099</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="V38" t="n">
-        <v>2490.891446435099</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="W38" t="n">
-        <v>2490.891446435099</v>
+        <v>2237.305650629176</v>
       </c>
       <c r="X38" t="n">
-        <v>2490.891446435099</v>
+        <v>1963.959533839528</v>
       </c>
       <c r="Y38" t="n">
-        <v>2490.891446435099</v>
+        <v>1573.820201863716</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>909.7854722244628</v>
+        <v>859.1382992416488</v>
       </c>
       <c r="C39" t="n">
-        <v>735.3324429433358</v>
+        <v>684.6852699605219</v>
       </c>
       <c r="D39" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992706</v>
       </c>
       <c r="E39" t="n">
-        <v>427.1605782766289</v>
+        <v>376.5134052938151</v>
       </c>
       <c r="F39" t="n">
-        <v>280.6260203035139</v>
+        <v>229.9788473207001</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005568</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9310127909885</v>
+        <v>119.1040605898627</v>
       </c>
       <c r="K39" t="n">
-        <v>292.6406182091638</v>
+        <v>560.6342506504908</v>
       </c>
       <c r="L39" t="n">
-        <v>580.6049013918264</v>
+        <v>848.5985338331533</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.100534384513</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N39" t="n">
-        <v>1813.5961673772</v>
+        <v>1583.208704312129</v>
       </c>
       <c r="O39" t="n">
-        <v>2138.281785090957</v>
+        <v>1907.894322025886</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T39" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261717</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.8426522949551</v>
+        <v>368.8706512689446</v>
       </c>
       <c r="C40" t="n">
-        <v>626.9064693670482</v>
+        <v>199.9344683410377</v>
       </c>
       <c r="D40" t="n">
-        <v>476.7898299547124</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="E40" t="n">
-        <v>476.7898299547124</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="F40" t="n">
-        <v>329.8998824568021</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G40" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J40" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M40" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7350,34 +7350,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q40" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T40" t="n">
-        <v>1085.259822331916</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="U40" t="n">
-        <v>1085.259822331916</v>
+        <v>999.3012461407318</v>
       </c>
       <c r="V40" t="n">
-        <v>1085.259822331916</v>
+        <v>999.3012461407318</v>
       </c>
       <c r="W40" t="n">
-        <v>795.8426522949551</v>
+        <v>999.3012461407318</v>
       </c>
       <c r="X40" t="n">
-        <v>795.8426522949551</v>
+        <v>771.3116952427144</v>
       </c>
       <c r="Y40" t="n">
-        <v>795.8426522949551</v>
+        <v>550.5191160991843</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1215.554503256966</v>
+        <v>1505.147535883887</v>
       </c>
       <c r="C41" t="n">
-        <v>846.5919863165539</v>
+        <v>1505.147535883887</v>
       </c>
       <c r="D41" t="n">
-        <v>846.5919863165539</v>
+        <v>1146.881837277137</v>
       </c>
       <c r="E41" t="n">
-        <v>460.8037337183096</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819823</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799474</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549138</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240657</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085905</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.759433557979</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.759433557979</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.759433557979</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.759433557979</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="X41" t="n">
-        <v>1992.293675296899</v>
+        <v>2281.886707923821</v>
       </c>
       <c r="Y41" t="n">
-        <v>1602.154343321087</v>
+        <v>1891.747375948009</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621914</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L42" t="n">
-        <v>576.9096910448538</v>
+        <v>1030.271165841883</v>
       </c>
       <c r="M42" t="n">
-        <v>966.7130713194433</v>
+        <v>1385.668770090554</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.20870431213</v>
+        <v>1764.881336320859</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025887</v>
+        <v>2089.566954034616</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787596</v>
+        <v>2330.822720796325</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.4570245754893</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="C43" t="n">
-        <v>348.5208416475824</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="D43" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="E43" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="F43" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J43" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M43" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7587,34 +7587,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q43" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S43" t="n">
-        <v>1505.443183112052</v>
+        <v>1513.469867714115</v>
       </c>
       <c r="T43" t="n">
-        <v>1282.351261961867</v>
+        <v>1513.469867714115</v>
       </c>
       <c r="U43" t="n">
-        <v>1282.351261961867</v>
+        <v>1224.350082043337</v>
       </c>
       <c r="V43" t="n">
-        <v>1027.66677375598</v>
+        <v>969.6655938374497</v>
       </c>
       <c r="W43" t="n">
-        <v>738.2496037190194</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X43" t="n">
-        <v>738.2496037190194</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.4570245754893</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1245.530189310698</v>
+        <v>1573.820201863716</v>
       </c>
       <c r="C44" t="n">
-        <v>876.567672370286</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D44" t="n">
-        <v>876.567672370286</v>
+        <v>846.5919863165537</v>
       </c>
       <c r="E44" t="n">
-        <v>876.567672370286</v>
+        <v>460.8037337183095</v>
       </c>
       <c r="F44" t="n">
-        <v>465.5817675806784</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J44" t="n">
         <v>181.1756535819832</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549141</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085905</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q44" t="n">
         <v>2474.446703561745</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="T44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="U44" t="n">
-        <v>2302.827490185462</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="V44" t="n">
-        <v>1971.764602841892</v>
+        <v>2159.828559091527</v>
       </c>
       <c r="W44" t="n">
-        <v>1618.995947571778</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="X44" t="n">
-        <v>1245.530189310698</v>
+        <v>1960.420041927838</v>
       </c>
       <c r="Y44" t="n">
-        <v>1245.530189310698</v>
+        <v>1960.420041927838</v>
       </c>
     </row>
     <row r="45">
@@ -7703,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>909.7854722244628</v>
+        <v>909.7854722244625</v>
       </c>
       <c r="C45" t="n">
-        <v>735.3324429433358</v>
+        <v>735.3324429433355</v>
       </c>
       <c r="D45" t="n">
-        <v>586.3980332820845</v>
+        <v>586.3980332820843</v>
       </c>
       <c r="E45" t="n">
-        <v>427.1605782766289</v>
+        <v>427.1605782766288</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6260203035139</v>
+        <v>280.6260203035138</v>
       </c>
       <c r="G45" t="n">
         <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310206</v>
       </c>
       <c r="K45" t="n">
-        <v>531.3276987465996</v>
+        <v>413.7755328491959</v>
       </c>
       <c r="L45" t="n">
-        <v>819.2919819292621</v>
+        <v>701.7398160318583</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.689586177934</v>
+        <v>1318.235449024545</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.18521917062</v>
+        <v>1697.448015254849</v>
       </c>
       <c r="O45" t="n">
-        <v>2115.870836884377</v>
+        <v>2022.133632968606</v>
       </c>
       <c r="P45" t="n">
-        <v>2357.126603646086</v>
+        <v>2263.389399730315</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.480498228518</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S45" t="n">
         <v>2354.581362957452</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087778999</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.354900192147</v>
       </c>
       <c r="V45" t="n">
         <v>1697.202791960405</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232204</v>
+        <v>1442.965435232203</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026671</v>
+        <v>1235.11393502667</v>
       </c>
       <c r="Y45" t="n">
         <v>1078.000809244531</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>792.5121900364234</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="C46" t="n">
-        <v>623.5760071085165</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="D46" t="n">
-        <v>473.4593676961807</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="E46" t="n">
-        <v>473.4593676961807</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F46" t="n">
         <v>473.4593676961807</v>
@@ -7803,10 +7803,10 @@
         <v>156.4714025375973</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477624</v>
       </c>
       <c r="K46" t="n">
         <v>242.1145636490677</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S46" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204926</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U46" t="n">
-        <v>1530.711490114932</v>
+        <v>796.1400366611368</v>
       </c>
       <c r="V46" t="n">
-        <v>1530.711490114932</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="W46" t="n">
-        <v>1241.294320077971</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="X46" t="n">
-        <v>1013.304769179953</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="Y46" t="n">
-        <v>792.5121900364234</v>
+        <v>620.3493151940911</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>170.979460614014</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>220.0452252569063</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>170.979460614014</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>220.0452252569075</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>9.967937521058033</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>188.6850150503359</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053384</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184482</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165475</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.7395615125288</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>72.89368480302932</v>
+        <v>72.89368480303</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>89.23761944180217</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.8478747195285</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>72.89368480302943</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>72.89368480303</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170443</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>82.86162232408736</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>72.89368480302943</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>7.1772649300475</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>195.8611932580297</v>
+        <v>243.8731454170443</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053382</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72.89368480302943</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>7.177264930047727</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.4989437448746</v>
       </c>
       <c r="K33" t="n">
-        <v>39.80747155040996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053382</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>148.3421391932294</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>141.3768829333164</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>3.732535704012648</v>
+        <v>9.967937521057337</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>331.8498482929538</v>
       </c>
       <c r="M42" t="n">
-        <v>34.75330911708886</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>49.20690005690983</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>118.7395615125289</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>263.7353825697123</v>
       </c>
       <c r="N45" t="n">
-        <v>239.6798654165475</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.68404435936404</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>83.35856661940591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>80.19498969582204</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968166</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>71.44310047545008</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>50.14070125298564</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>51.03665601729082</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>107.440203205752</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>80.96738115143543</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>225.3602759690652</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>107.440203205752</v>
+        <v>220.0532196633797</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968169</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>124.7874829717002</v>
       </c>
       <c r="T17" t="n">
         <v>206.9146911261644</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>173.1672718480363</v>
       </c>
       <c r="X17" t="n">
-        <v>206.3544455199352</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>50.1407012529852</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.55384955560514</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>13.07705463777268</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.66053738693358</v>
+        <v>280.82918567319</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>71.44310047545001</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>71.44310047544957</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>75.29432626063655</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>126.4914602718192</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
         <v>67.96895394968166</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>153.5665001468939</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>330.480138863034</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>141.3565515044942</v>
       </c>
       <c r="T25" t="n">
-        <v>181.8668348789003</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>257.2159482180368</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.6062992654567</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>275.6151300955036</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>79.12742163695448</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>107.4402032057517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>2.162897221329246</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>124.6940425449176</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>17.14171038466012</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.8610019386828</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.2535461533057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>216.282506041659</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>166.0543100672619</v>
       </c>
       <c r="U32" t="n">
         <v>251.0499378478622</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
@@ -25095,7 +25095,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S34" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>143.1671619316191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>152.2128772377478</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>376.7413072502787</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>81.29561441123005</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>71.44310047544778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>1.853165332945082</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>10.32359284767628</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>256.027216644199</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>99.11844505671684</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.14070125298481</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>50.14070125298564</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>142.1238903869848</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>98.39018414285277</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>114.3193468144795</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
@@ -25681,7 +25681,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>83.03399837781573</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.0499378478622</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>50.14070125298477</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>71.44310047544997</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>19.23237484060533</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>100.3275297477489</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717002</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>189.6541041324233</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>151.826536725361</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.14070125298571</v>
+        <v>50.14070125298593</v>
       </c>
     </row>
     <row r="46">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>208.5047985049761</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>78.10482907145274</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677965.0638477763</v>
+        <v>677965.0638477762</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>690442.9625340215</v>
+        <v>690442.9625340216</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690442.9625340217</v>
+        <v>690442.9625340216</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690442.9625340216</v>
+        <v>690442.9625340217</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677965.0638477763</v>
+        <v>677965.0638477765</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677965.0638477762</v>
+        <v>677965.0638477759</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
+        <v>532529.6201660751</v>
+      </c>
+      <c r="D2" t="n">
         <v>532529.620166075</v>
       </c>
-      <c r="D2" t="n">
-        <v>532529.6201660751</v>
-      </c>
       <c r="E2" t="n">
-        <v>391531.8826113116</v>
+        <v>391531.8826113114</v>
       </c>
       <c r="F2" t="n">
-        <v>391531.8826113116</v>
+        <v>391531.8826113115</v>
       </c>
       <c r="G2" t="n">
         <v>391531.8826113114</v>
       </c>
       <c r="H2" t="n">
+        <v>391531.8826113116</v>
+      </c>
+      <c r="I2" t="n">
+        <v>397197.3204790146</v>
+      </c>
+      <c r="J2" t="n">
+        <v>397197.3204790147</v>
+      </c>
+      <c r="K2" t="n">
+        <v>397197.3204790147</v>
+      </c>
+      <c r="L2" t="n">
+        <v>397197.3204790146</v>
+      </c>
+      <c r="M2" t="n">
+        <v>391531.8826113116</v>
+      </c>
+      <c r="N2" t="n">
         <v>391531.8826113114</v>
       </c>
-      <c r="I2" t="n">
-        <v>397197.3204790148</v>
-      </c>
-      <c r="J2" t="n">
-        <v>397197.3204790146</v>
-      </c>
-      <c r="K2" t="n">
-        <v>397197.3204790146</v>
-      </c>
-      <c r="L2" t="n">
-        <v>397197.3204790148</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>391531.8826113114</v>
       </c>
-      <c r="N2" t="n">
-        <v>391531.8826113116</v>
-      </c>
-      <c r="O2" t="n">
-        <v>391531.8826113117</v>
-      </c>
       <c r="P2" t="n">
-        <v>391531.8826113115</v>
+        <v>391531.8826113113</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>924651.5793761238</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.608323018930336e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648292</v>
+        <v>4895.439270648348</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468586</v>
+        <v>150597.3382468583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15880.58142742344</v>
       </c>
       <c r="F4" t="n">
-        <v>15880.58142742346</v>
+        <v>15880.58142742344</v>
       </c>
       <c r="G4" t="n">
         <v>15880.58142742346</v>
@@ -26438,22 +26438,22 @@
         <v>15880.58142742345</v>
       </c>
       <c r="I4" t="n">
-        <v>18784.15557418252</v>
+        <v>18784.15557418255</v>
       </c>
       <c r="J4" t="n">
-        <v>18784.15557418252</v>
+        <v>18784.15557418254</v>
       </c>
       <c r="K4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418254</v>
       </c>
       <c r="L4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418254</v>
       </c>
       <c r="M4" t="n">
-        <v>15880.58142742346</v>
+        <v>15880.58142742352</v>
       </c>
       <c r="N4" t="n">
-        <v>15880.58142742346</v>
+        <v>15880.58142742345</v>
       </c>
       <c r="O4" t="n">
         <v>15880.58142742345</v>
@@ -26481,10 +26481,10 @@
         <v>57906.41050425671</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425671</v>
@@ -26496,22 +26496,22 @@
         <v>59025.70047253834</v>
       </c>
       <c r="K5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="L5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.4105042567</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84129.62155311616</v>
+        <v>84085.48577443503</v>
       </c>
       <c r="C6" t="n">
-        <v>84129.62155311598</v>
+        <v>84085.48577443497</v>
       </c>
       <c r="D6" t="n">
-        <v>84129.62155311616</v>
+        <v>84085.48577443491</v>
       </c>
       <c r="E6" t="n">
-        <v>-606906.6886964925</v>
+        <v>-612373.8143811261</v>
       </c>
       <c r="F6" t="n">
-        <v>317744.8906796314</v>
+        <v>312277.7649949976</v>
       </c>
       <c r="G6" t="n">
-        <v>317744.8906796313</v>
+        <v>312277.7649949977</v>
       </c>
       <c r="H6" t="n">
-        <v>317744.8906796313</v>
+        <v>312277.7649949978</v>
       </c>
       <c r="I6" t="n">
-        <v>314492.0251616456</v>
+        <v>309242.8009334619</v>
       </c>
       <c r="J6" t="n">
-        <v>319387.4644322937</v>
+        <v>314138.2402041103</v>
       </c>
       <c r="K6" t="n">
-        <v>319387.4644322937</v>
+        <v>314138.2402041103</v>
       </c>
       <c r="L6" t="n">
-        <v>319387.4644322939</v>
+        <v>314138.2402041102</v>
       </c>
       <c r="M6" t="n">
-        <v>167147.5524327727</v>
+        <v>161680.4267481396</v>
       </c>
       <c r="N6" t="n">
-        <v>317744.8906796314</v>
+        <v>312277.7649949976</v>
       </c>
       <c r="O6" t="n">
-        <v>317744.8906796315</v>
+        <v>312277.7649949977</v>
       </c>
       <c r="P6" t="n">
-        <v>317744.8906796313</v>
+        <v>312277.7649949976</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="G3" t="n">
+        <v>919.489014607487</v>
+      </c>
+      <c r="H3" t="n">
         <v>919.4890146074871</v>
       </c>
-      <c r="G3" t="n">
-        <v>919.4890146074872</v>
-      </c>
-      <c r="H3" t="n">
-        <v>919.4890146074872</v>
-      </c>
       <c r="I3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.489014607487</v>
       </c>
     </row>
     <row r="4">
@@ -26801,19 +26801,19 @@
         <v>622.7228616087745</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
         <v>641.1322360870907</v>
@@ -26822,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.722861608775</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087743</v>
       </c>
     </row>
   </sheetData>
@@ -27023,7 +27023,7 @@
         <v>622.7228616087746</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5.613183511898869e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831609</v>
+        <v>18.40937447831629</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304577</v>
+        <v>604.3134871304565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>622.7228616087746</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.613183511898869e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207242</v>
@@ -32007,10 +32007,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
         <v>622.8082601404915</v>
@@ -32019,13 +32019,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T14" t="n">
         <v>16.18115843796693</v>
@@ -32074,13 +32074,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
         <v>429.4273930956949</v>
@@ -32092,10 +32092,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
         <v>252.460455482418</v>
@@ -32104,7 +32104,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
         <v>7.971796268153589</v>
@@ -32177,16 +32177,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U16" t="n">
         <v>0.09044154242040867</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H17" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207242</v>
       </c>
       <c r="J17" t="n">
-        <v>313.7305758936371</v>
+        <v>313.730575893637</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025211</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861146</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857303</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404914</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515573</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013571</v>
+        <v>232.196389201357</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454518</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796693</v>
@@ -32311,28 +32311,28 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I18" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J18" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K18" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L18" t="n">
-        <v>429.4273930956949</v>
+        <v>429.4273930956948</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610803</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755601</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623806</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130261</v>
       </c>
       <c r="Q18" t="n">
         <v>252.460455482418</v>
@@ -32341,10 +32341,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096891</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153587</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32387,10 +32387,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H19" t="n">
-        <v>14.74197141452661</v>
+        <v>14.7419714145266</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445193</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
@@ -32399,34 +32399,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572269</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258507</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604563</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920854</v>
       </c>
       <c r="P19" t="n">
         <v>200.5390467268525</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S19" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598667</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040865</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H20" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207242</v>
@@ -32481,10 +32481,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M20" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O20" t="n">
         <v>622.8082601404915</v>
@@ -32493,13 +32493,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R20" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796693</v>
@@ -32548,13 +32548,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J21" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L21" t="n">
         <v>429.4273930956949</v>
@@ -32566,10 +32566,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q21" t="n">
         <v>252.460455482418</v>
@@ -32578,7 +32578,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T21" t="n">
         <v>7.971796268153589</v>
@@ -32651,16 +32651,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U22" t="n">
         <v>0.09044154242040867</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H23" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207242</v>
@@ -32718,10 +32718,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O23" t="n">
         <v>622.8082601404915</v>
@@ -32730,13 +32730,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R23" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T23" t="n">
         <v>16.18115843796693</v>
@@ -32785,13 +32785,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K24" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L24" t="n">
         <v>429.4273930956949</v>
@@ -32803,10 +32803,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q24" t="n">
         <v>252.460455482418</v>
@@ -32815,7 +32815,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T24" t="n">
         <v>7.971796268153589</v>
@@ -32888,16 +32888,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U25" t="n">
         <v>0.09044154242040867</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H26" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207242</v>
@@ -32955,10 +32955,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O26" t="n">
         <v>622.8082601404915</v>
@@ -32967,13 +32967,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R26" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T26" t="n">
         <v>16.18115843796693</v>
@@ -33022,13 +33022,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K27" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L27" t="n">
         <v>429.4273930956949</v>
@@ -33040,10 +33040,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q27" t="n">
         <v>252.460455482418</v>
@@ -33052,7 +33052,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T27" t="n">
         <v>7.971796268153589</v>
@@ -33125,16 +33125,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U28" t="n">
         <v>0.09044154242040867</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H29" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207242</v>
@@ -33192,10 +33192,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O29" t="n">
         <v>622.8082601404915</v>
@@ -33204,13 +33204,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R29" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796693</v>
@@ -33259,13 +33259,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K30" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L30" t="n">
         <v>429.4273930956949</v>
@@ -33277,10 +33277,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q30" t="n">
         <v>252.460455482418</v>
@@ -33289,7 +33289,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T30" t="n">
         <v>7.971796268153589</v>
@@ -33362,16 +33362,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U31" t="n">
         <v>0.09044154242040867</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207242</v>
@@ -33429,10 +33429,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404915</v>
@@ -33441,13 +33441,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796693</v>
@@ -33496,13 +33496,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L33" t="n">
         <v>429.4273930956949</v>
@@ -33514,10 +33514,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q33" t="n">
         <v>252.460455482418</v>
@@ -33526,7 +33526,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T33" t="n">
         <v>7.971796268153589</v>
@@ -33599,16 +33599,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U34" t="n">
         <v>0.09044154242040867</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207242</v>
@@ -33666,10 +33666,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404915</v>
@@ -33678,13 +33678,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796693</v>
@@ -33733,13 +33733,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L36" t="n">
         <v>429.4273930956949</v>
@@ -33751,10 +33751,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q36" t="n">
         <v>252.460455482418</v>
@@ -33763,7 +33763,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T36" t="n">
         <v>7.971796268153589</v>
@@ -33836,16 +33836,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U37" t="n">
         <v>0.09044154242040867</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207242</v>
@@ -33903,10 +33903,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404915</v>
@@ -33915,13 +33915,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796693</v>
@@ -33970,13 +33970,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L39" t="n">
         <v>429.4273930956949</v>
@@ -33988,10 +33988,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q39" t="n">
         <v>252.460455482418</v>
@@ -34000,7 +34000,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T39" t="n">
         <v>7.971796268153589</v>
@@ -34073,16 +34073,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U40" t="n">
         <v>0.09044154242040867</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207242</v>
@@ -34140,10 +34140,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O41" t="n">
         <v>622.8082601404915</v>
@@ -34152,13 +34152,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
@@ -34207,13 +34207,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L42" t="n">
         <v>429.4273930956949</v>
@@ -34225,10 +34225,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q42" t="n">
         <v>252.460455482418</v>
@@ -34237,7 +34237,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T42" t="n">
         <v>7.971796268153589</v>
@@ -34310,16 +34310,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U43" t="n">
         <v>0.09044154242040867</v>
@@ -34368,34 +34368,34 @@
         <v>142.5069356207242</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.730575893637</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025211</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861146</v>
       </c>
       <c r="M44" t="n">
         <v>649.0622128088318</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857303</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404914</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515573</v>
       </c>
       <c r="Q44" t="n">
         <v>399.1737460349518</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013571</v>
+        <v>232.196389201357</v>
       </c>
       <c r="S44" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454518</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
@@ -34453,19 +34453,19 @@
         <v>319.3662929321118</v>
       </c>
       <c r="L45" t="n">
-        <v>429.4273930956949</v>
+        <v>429.4273930956948</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610803</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755601</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623806</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130261</v>
       </c>
       <c r="Q45" t="n">
         <v>252.460455482418</v>
@@ -34474,10 +34474,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096891</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153587</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34520,10 +34520,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H46" t="n">
-        <v>14.74197141452661</v>
+        <v>14.7419714145266</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445193</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
@@ -34532,16 +34532,16 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L46" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572269</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258507</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604563</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920854</v>
       </c>
       <c r="P46" t="n">
         <v>200.5390467268525</v>
@@ -34556,10 +34556,10 @@
         <v>28.89607280332052</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598667</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040865</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9900909703315</v>
+        <v>352.5043145717669</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158207</v>
@@ -35506,13 +35506,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
-        <v>463.7379189556023</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R12" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
         <v>392.7100487188047</v>
@@ -35667,10 +35667,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703314</v>
+        <v>352.5043145717669</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158207</v>
@@ -35743,13 +35743,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P15" t="n">
-        <v>463.7379189556034</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
         <v>274.1035227175431</v>
@@ -35825,7 +35825,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669507</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161274</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891394</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188046</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962878</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.868056160503</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722495</v>
+        <v>16.6108513872249</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>69.98609258703176</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703315</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158207</v>
+        <v>479.5580283661566</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390621</v>
+        <v>358.987479039062</v>
       </c>
       <c r="N18" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922268</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179362</v>
       </c>
       <c r="P18" t="n">
-        <v>243.692693698696</v>
+        <v>562.155462338633</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963964</v>
       </c>
       <c r="R18" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058009</v>
       </c>
       <c r="K19" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L19" t="n">
         <v>274.1035227175431</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876913</v>
       </c>
       <c r="N19" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396849</v>
       </c>
       <c r="O19" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P19" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917459</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L20" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O20" t="n">
         <v>392.7100487188047</v>
@@ -36141,10 +36141,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722513</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063826</v>
+        <v>92.62341400781852</v>
       </c>
       <c r="K21" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158207</v>
@@ -36211,7 +36211,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087745</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O21" t="n">
         <v>327.9652704179363</v>
@@ -36220,10 +36220,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>231.2182429089253</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R21" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K22" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L22" t="n">
         <v>274.1035227175431</v>
@@ -36299,7 +36299,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L23" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O23" t="n">
         <v>392.7100487188047</v>
       </c>
       <c r="P23" t="n">
-        <v>373.2131298993172</v>
+        <v>373.2131298993179</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K24" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158207</v>
@@ -36448,19 +36448,19 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N24" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
         <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
-        <v>332.9303131404982</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322456</v>
+        <v>279.326556115925</v>
       </c>
       <c r="R24" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K25" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L25" t="n">
         <v>274.1035227175431</v>
@@ -36536,7 +36536,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K26" t="n">
-        <v>323.0046407605701</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161275</v>
+        <v>420.4529489191575</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O26" t="n">
         <v>392.7100487188047</v>
@@ -36615,10 +36615,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9900909703315</v>
+        <v>425.3979993747972</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158207</v>
@@ -36685,7 +36685,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>465.9046185163143</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
         <v>327.9652704179363</v>
@@ -36694,10 +36694,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R27" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K28" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L28" t="n">
         <v>274.1035227175431</v>
@@ -36773,7 +36773,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K29" t="n">
-        <v>323.0046407605701</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161275</v>
+        <v>354.736529046175</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O29" t="n">
         <v>392.7100487188047</v>
@@ -36852,10 +36852,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722495</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K30" t="n">
-        <v>377.3860472157826</v>
+        <v>425.3979993747972</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
@@ -36922,7 +36922,7 @@
         <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O30" t="n">
         <v>327.9652704179363</v>
@@ -36931,7 +36931,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K31" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L31" t="n">
         <v>274.1035227175431</v>
@@ -37010,7 +37010,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
-        <v>323.0046407605701</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O32" t="n">
         <v>392.7100487188047</v>
@@ -37089,10 +37089,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605024</v>
+        <v>184.0453210905501</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722495</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597373</v>
+        <v>165.5170988108483</v>
       </c>
       <c r="K33" t="n">
-        <v>221.3323255081629</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
         <v>327.9652704179363</v>
@@ -37168,7 +37168,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L34" t="n">
         <v>274.1035227175431</v>
@@ -37247,7 +37247,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891411</v>
       </c>
       <c r="O35" t="n">
         <v>392.7100487188047</v>
@@ -37326,10 +37326,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.868056160503</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577529</v>
+        <v>329.8669931509822</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>500.3643619723786</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
-        <v>622.7228616087747</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O36" t="n">
         <v>327.9652704179363</v>
@@ -37405,10 +37405,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K37" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L37" t="n">
         <v>274.1035227175431</v>
@@ -37484,7 +37484,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O38" t="n">
         <v>392.7100487188047</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962872</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722559</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>63.75069076998638</v>
+        <v>69.98609258703104</v>
       </c>
       <c r="K39" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M39" t="n">
-        <v>622.7228616087747</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087747</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O39" t="n">
         <v>327.9652704179363</v>
@@ -37642,10 +37642,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K40" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L40" t="n">
         <v>274.1035227175431</v>
@@ -37721,7 +37721,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L41" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O41" t="n">
         <v>392.7100487188047</v>
@@ -37800,10 +37800,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K42" t="n">
-        <v>181.5248539577529</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158207</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="M42" t="n">
-        <v>393.740788156151</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>622.7228616087747</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179363</v>
@@ -37879,10 +37879,10 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322456</v>
+        <v>161.6855814533063</v>
       </c>
       <c r="R42" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L43" t="n">
         <v>274.1035227175431</v>
@@ -37958,7 +37958,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669507</v>
       </c>
       <c r="K44" t="n">
         <v>250.1109559575406</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161274</v>
       </c>
       <c r="M44" t="n">
         <v>418.7159795815591</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891394</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188046</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962878</v>
       </c>
       <c r="Q44" t="n">
         <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722493</v>
+        <v>16.6108513872249</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>300.2644154702817</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158206</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>622.7228616087743</v>
       </c>
       <c r="N45" t="n">
-        <v>622.7228616087745</v>
+        <v>383.0429961922268</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179362</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986959</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.4786813963965</v>
+        <v>207.1627257557605</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078699</v>
+        <v>22.63732142078698</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058009</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295873</v>
@@ -38183,16 +38183,16 @@
         <v>274.1035227175431</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876913</v>
       </c>
       <c r="N46" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396849</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P46" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917459</v>
       </c>
       <c r="Q46" t="n">
         <v>52.68079795403615</v>
